--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2918964.69659263</v>
+        <v>2918353.232769582</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3740578391992</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>35.66742669952333</v>
       </c>
       <c r="G11" t="n">
-        <v>151.4539046952278</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="H11" t="n">
         <v>151.4438020691861</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>26.8106534772528</v>
       </c>
       <c r="U11" t="n">
-        <v>54.43841809034584</v>
+        <v>54.43841809034583</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.1666010705179</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>142.1832812871328</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>185.9588248729378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.8039372363663</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.6072974044544</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.14441511887334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>19.28629294055926</v>
       </c>
       <c r="U12" t="n">
-        <v>41.5153529844847</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="V12" t="n">
-        <v>44.93573837676814</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="W12" t="n">
-        <v>114.0437456972221</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="X12" t="n">
-        <v>21.5997319008365</v>
+        <v>109.0614653777382</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.9588248729378</v>
+        <v>27.67110359539151</v>
       </c>
     </row>
     <row r="13">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.983801969852506</v>
+        <v>7.983801969852508</v>
       </c>
       <c r="S13" t="n">
         <v>39.82835632156551</v>
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>154.4923148425447</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>175.7657295230021</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="H14" t="n">
-        <v>16.26990225402094</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>54.43841809034583</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.1666010705179</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>142.1832812871328</v>
       </c>
       <c r="X14" t="n">
         <v>164.069531756072</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.9588248729378</v>
+        <v>74.96505480820962</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>172.4714956903804</v>
+        <v>170.1221348022495</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7516880733257</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>19.28629294055923</v>
+      </c>
+      <c r="U15" t="n">
+        <v>41.51535298448467</v>
+      </c>
+      <c r="V15" t="n">
         <v>185.9588248729378</v>
       </c>
-      <c r="U15" t="n">
-        <v>41.5153529844847</v>
-      </c>
-      <c r="V15" t="n">
-        <v>44.93573837676814</v>
-      </c>
       <c r="W15" t="n">
-        <v>70.99140103837749</v>
+        <v>70.99140103837746</v>
       </c>
       <c r="X15" t="n">
-        <v>21.5997319008365</v>
+        <v>21.59973190083647</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.67110359539151</v>
+        <v>27.67110359539149</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.983801969852506</v>
+        <v>7.98380196985248</v>
       </c>
       <c r="S16" t="n">
-        <v>39.82835632156551</v>
+        <v>39.82835632156549</v>
       </c>
       <c r="T16" t="n">
-        <v>28.07375014861585</v>
+        <v>28.07375014861583</v>
       </c>
       <c r="U16" t="n">
-        <v>92.94369835636036</v>
+        <v>92.94369835636033</v>
       </c>
       <c r="V16" t="n">
-        <v>49.3958326458158</v>
+        <v>49.39583264581577</v>
       </c>
       <c r="W16" t="n">
-        <v>94.59752455070122</v>
+        <v>94.59752455070119</v>
       </c>
       <c r="X16" t="n">
-        <v>26.20627286960843</v>
+        <v>26.2062728696084</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.42809027553432</v>
+        <v>21.42809027553429</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.73024242704577</v>
+        <v>75.73024242704571</v>
       </c>
       <c r="C17" t="n">
-        <v>51.84849943039126</v>
+        <v>51.84849943039196</v>
       </c>
       <c r="D17" t="n">
-        <v>39.41516169143972</v>
+        <v>39.41516169143966</v>
       </c>
       <c r="E17" t="n">
-        <v>73.12191411084859</v>
+        <v>73.12191411084854</v>
       </c>
       <c r="F17" t="n">
         <v>104.8422516892259</v>
@@ -1859,7 +1859,7 @@
         <v>120.4944142159883</v>
       </c>
       <c r="H17" t="n">
-        <v>48.79998665703266</v>
+        <v>48.7999866570326</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.52278565836446</v>
+        <v>22.5227856583644</v>
       </c>
       <c r="W17" t="n">
-        <v>39.53946587497933</v>
+        <v>39.53946587497927</v>
       </c>
       <c r="X17" t="n">
-        <v>61.42571634391857</v>
+        <v>61.42571634391851</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.92856946766233</v>
+        <v>83.92856946766227</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>20.85925663697169</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>185.9588248729378</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>185.9588248729378</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>185.9588248729378</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>163.7925329480835</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.73024242704577</v>
+        <v>75.73024242704571</v>
       </c>
       <c r="C20" t="n">
-        <v>51.84849943039126</v>
+        <v>51.8484994303912</v>
       </c>
       <c r="D20" t="n">
-        <v>39.4151616914393</v>
+        <v>39.41516169143966</v>
       </c>
       <c r="E20" t="n">
-        <v>73.12191411084859</v>
+        <v>73.12191411084854</v>
       </c>
       <c r="F20" t="n">
         <v>104.8422516892259</v>
       </c>
       <c r="G20" t="n">
-        <v>120.4944142159884</v>
+        <v>120.4944142159883</v>
       </c>
       <c r="H20" t="n">
-        <v>48.79998665703266</v>
+        <v>48.7999866570326</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>22.52278565836446</v>
+        <v>22.5227856583644</v>
       </c>
       <c r="W20" t="n">
-        <v>39.53946587497933</v>
+        <v>39.53946587497927</v>
       </c>
       <c r="X20" t="n">
-        <v>61.42571634391857</v>
+        <v>61.42571634391851</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.92856946766233</v>
+        <v>83.92856946766227</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7516880733257</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.6072974044544</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.773671034394482</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>85.61870130884661</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="U21" t="n">
         <v>185.9588248729378</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>163.7925329480835</v>
       </c>
       <c r="X21" t="n">
-        <v>185.9588248729378</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.73024242704577</v>
+        <v>75.73024242704571</v>
       </c>
       <c r="C23" t="n">
-        <v>51.84849943039126</v>
+        <v>51.8484994303912</v>
       </c>
       <c r="D23" t="n">
-        <v>39.41516169143972</v>
+        <v>39.41516169143966</v>
       </c>
       <c r="E23" t="n">
-        <v>73.12191411084859</v>
+        <v>73.12191411084854</v>
       </c>
       <c r="F23" t="n">
         <v>104.8422516892259</v>
       </c>
       <c r="G23" t="n">
-        <v>120.4944142159884</v>
+        <v>120.4944142159883</v>
       </c>
       <c r="H23" t="n">
-        <v>48.79998665703266</v>
+        <v>48.7999866570326</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>22.52278565836446</v>
+        <v>22.5227856583644</v>
       </c>
       <c r="W23" t="n">
-        <v>39.53946587497933</v>
+        <v>39.53946587497927</v>
       </c>
       <c r="X23" t="n">
-        <v>61.42571634391857</v>
+        <v>61.42571634391851</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.92856946766233</v>
+        <v>83.92856946766227</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>53.14441511887334</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R24" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>185.9588248729378</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>156.0188619136892</v>
       </c>
       <c r="W24" t="n">
-        <v>153.6736663910361</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.9588248729378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.9021929145029</v>
+        <v>159.9021929145028</v>
       </c>
       <c r="C26" t="n">
-        <v>136.0204499178484</v>
+        <v>136.0204499178483</v>
       </c>
       <c r="D26" t="n">
         <v>123.5871121788968</v>
@@ -2570,10 +2570,10 @@
         <v>204.6663647034455</v>
       </c>
       <c r="H26" t="n">
-        <v>132.9719371444898</v>
+        <v>132.9719371444897</v>
       </c>
       <c r="I26" t="n">
-        <v>27.33512616926686</v>
+        <v>27.33512616926683</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.63363545917066</v>
+        <v>13.63363545917064</v>
       </c>
       <c r="T26" t="n">
-        <v>8.33878855255646</v>
+        <v>8.338788552556432</v>
       </c>
       <c r="U26" t="n">
-        <v>35.96655316564949</v>
+        <v>35.96655316564946</v>
       </c>
       <c r="V26" t="n">
-        <v>106.6947361458216</v>
+        <v>106.6947361458215</v>
       </c>
       <c r="W26" t="n">
         <v>123.7114163624364</v>
       </c>
       <c r="X26" t="n">
-        <v>145.5976668313757</v>
+        <v>145.5976668313756</v>
       </c>
       <c r="Y26" t="n">
         <v>168.1005199551194</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8144280158629122</v>
+        <v>0.814428015862884</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2285355231188</v>
+        <v>77.03271181438492</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>26.46387345207177</v>
       </c>
       <c r="W27" t="n">
-        <v>90.61859705946119</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.127866976140155</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199238670695166</v>
+        <v>9.199238670695138</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.35649139686916</v>
+        <v>21.35649139686914</v>
       </c>
       <c r="T28" t="n">
-        <v>9.601885223919504</v>
+        <v>9.601885223919476</v>
       </c>
       <c r="U28" t="n">
-        <v>74.47183343166401</v>
+        <v>74.47183343166398</v>
       </c>
       <c r="V28" t="n">
-        <v>30.92396772111945</v>
+        <v>30.92396772111942</v>
       </c>
       <c r="W28" t="n">
-        <v>76.12565962600488</v>
+        <v>76.12565962600485</v>
       </c>
       <c r="X28" t="n">
-        <v>7.734407944912078</v>
+        <v>7.73440794491205</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.956225350837968</v>
+        <v>2.95622535083794</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>123.5871121788968</v>
       </c>
       <c r="E29" t="n">
-        <v>157.2938645983056</v>
+        <v>157.2938645983057</v>
       </c>
       <c r="F29" t="n">
         <v>189.014202176683</v>
@@ -2810,7 +2810,7 @@
         <v>132.9719371444897</v>
       </c>
       <c r="I29" t="n">
-        <v>27.3351261692668</v>
+        <v>27.33512616926683</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.63363545917061</v>
+        <v>13.63363545917064</v>
       </c>
       <c r="T29" t="n">
-        <v>8.338788552556403</v>
+        <v>8.338788552556432</v>
       </c>
       <c r="U29" t="n">
-        <v>35.96655316564943</v>
+        <v>35.96655316564946</v>
       </c>
       <c r="V29" t="n">
         <v>106.6947361458215</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>71.11856282934231</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.8039372363663</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8144280158628554</v>
+        <v>85.04000420918928</v>
       </c>
       <c r="U30" t="n">
         <v>237.2285355231188</v>
       </c>
       <c r="V30" t="n">
-        <v>26.46387345207174</v>
+        <v>26.46387345207177</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>52.51953611368111</v>
       </c>
       <c r="X30" t="n">
-        <v>3.127866976140098</v>
+        <v>3.127866976140126</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199238670695109</v>
+        <v>9.199238670695138</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.35649139686911</v>
+        <v>21.35649139686914</v>
       </c>
       <c r="T31" t="n">
-        <v>9.601885223919448</v>
+        <v>9.601885223919476</v>
       </c>
       <c r="U31" t="n">
-        <v>74.47183343166395</v>
+        <v>74.47183343166398</v>
       </c>
       <c r="V31" t="n">
-        <v>30.9239677211194</v>
+        <v>30.92396772111942</v>
       </c>
       <c r="W31" t="n">
-        <v>76.12565962600482</v>
+        <v>76.12565962600485</v>
       </c>
       <c r="X31" t="n">
-        <v>7.734407944912022</v>
+        <v>7.73440794491205</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.956225350837911</v>
+        <v>2.95622535083794</v>
       </c>
     </row>
     <row r="32">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>80.10766061266064</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8144280158628838</v>
+        <v>0.814428015862884</v>
       </c>
       <c r="U33" t="n">
-        <v>23.04348805978832</v>
+        <v>237.2285355231188</v>
       </c>
       <c r="V33" t="n">
         <v>26.46387345207177</v>
@@ -3171,7 +3171,7 @@
         <v>52.51953611368111</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>79.57977213507198</v>
       </c>
       <c r="Y33" t="n">
         <v>9.199238670695138</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0481107126616</v>
+        <v>102.0481107126617</v>
       </c>
       <c r="C35" t="n">
-        <v>78.16636771600713</v>
+        <v>78.16636771600719</v>
       </c>
       <c r="D35" t="n">
-        <v>65.73302997705559</v>
+        <v>65.73302997705565</v>
       </c>
       <c r="E35" t="n">
-        <v>99.43978239646447</v>
+        <v>99.43978239646452</v>
       </c>
       <c r="F35" t="n">
         <v>131.1601199748418</v>
@@ -3281,7 +3281,7 @@
         <v>146.8122825016043</v>
       </c>
       <c r="H35" t="n">
-        <v>75.11785494264853</v>
+        <v>75.11785494264859</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.84065394398033</v>
+        <v>48.84065394398039</v>
       </c>
       <c r="W35" t="n">
-        <v>65.8573341605952</v>
+        <v>65.85733416059526</v>
       </c>
       <c r="X35" t="n">
-        <v>87.74358462953444</v>
+        <v>87.7435846295345</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2464377532782</v>
+        <v>110.2464377532783</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63.1195487199361</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>70.86978858036181</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.5559572017811</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.61775122982277</v>
+        <v>16.61775122982283</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.27157742416364</v>
+        <v>18.2715774241637</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.027612640306443</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9994754791934</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2285355231188</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.5559572017811</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>125.3267702697239</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.5670667452359</v>
+        <v>132.567066745236</v>
       </c>
       <c r="C41" t="n">
-        <v>108.6853237485814</v>
+        <v>108.6853237485815</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>96.25198600962997</v>
       </c>
       <c r="E41" t="n">
         <v>129.9587384290388</v>
       </c>
       <c r="F41" t="n">
-        <v>161.6790760074161</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>177.3312385341785</v>
+        <v>72.87621096422086</v>
       </c>
       <c r="H41" t="n">
-        <v>105.6368109752228</v>
+        <v>105.6368109752229</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>8.631426996382629</v>
       </c>
       <c r="V41" t="n">
-        <v>14.48520959836396</v>
+        <v>79.35960997655471</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.37629019316958</v>
       </c>
       <c r="X41" t="n">
-        <v>118.2625406621087</v>
+        <v>118.2625406621088</v>
       </c>
       <c r="Y41" t="n">
-        <v>140.7653937858525</v>
+        <v>140.7653937858526</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>124.4686146648813</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9994754791934</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>232.7106449665648</v>
+        <v>25.18440994441428</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.13670726239707</v>
+        <v>47.13670726239715</v>
       </c>
       <c r="V43" t="n">
-        <v>3.588841551852511</v>
+        <v>3.588841551852596</v>
       </c>
       <c r="W43" t="n">
-        <v>48.79053345673793</v>
+        <v>48.79053345673802</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.567066745236</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>108.6853237485815</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>96.25198600962997</v>
       </c>
       <c r="E44" t="n">
-        <v>129.9587384290389</v>
+        <v>129.9587384290388</v>
       </c>
       <c r="F44" t="n">
         <v>161.6790760074162</v>
       </c>
       <c r="G44" t="n">
-        <v>177.3312385341787</v>
+        <v>149.4010126772646</v>
       </c>
       <c r="H44" t="n">
-        <v>105.6368109752229</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.631426996382661</v>
+        <v>8.631426996382629</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>79.35960997655471</v>
       </c>
       <c r="W44" t="n">
-        <v>5.853782601980981</v>
+        <v>96.37629019316958</v>
       </c>
       <c r="X44" t="n">
         <v>118.2625406621088</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.8039372363663</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.6072974044544</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>214.9994754791934</v>
       </c>
       <c r="U45" t="n">
-        <v>107.6935911396018</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.18440994441431</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>99.58465214782507</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.13670726239718</v>
+        <v>47.13670726239715</v>
       </c>
       <c r="V46" t="n">
-        <v>3.588841551852624</v>
+        <v>3.588841551852596</v>
       </c>
       <c r="W46" t="n">
-        <v>48.79053345673805</v>
+        <v>48.79053345673802</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.8339855498491</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="C11" t="n">
-        <v>320.8339855498491</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="D11" t="n">
-        <v>320.8339855498491</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="E11" t="n">
-        <v>320.8339855498491</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="F11" t="n">
-        <v>320.8339855498491</v>
+        <v>355.6874402748087</v>
       </c>
       <c r="G11" t="n">
         <v>167.8502434334574</v>
@@ -5039,52 +5039,52 @@
         <v>14.87670598983502</v>
       </c>
       <c r="J11" t="n">
-        <v>131.5065296358406</v>
+        <v>131.5065296358405</v>
       </c>
       <c r="K11" t="n">
-        <v>315.605766260049</v>
+        <v>315.6057662600489</v>
       </c>
       <c r="L11" t="n">
-        <v>360.2582554925291</v>
+        <v>360.258255492529</v>
       </c>
       <c r="M11" t="n">
-        <v>438.8187130617599</v>
+        <v>438.8187130617598</v>
       </c>
       <c r="N11" t="n">
-        <v>511.8079249498961</v>
+        <v>511.8079249498959</v>
       </c>
       <c r="O11" t="n">
-        <v>543.820209257689</v>
+        <v>695.9071615741043</v>
       </c>
       <c r="P11" t="n">
-        <v>640.3092566992159</v>
+        <v>695.9071615741043</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="R11" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="S11" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="T11" t="n">
-        <v>743.8352994917511</v>
+        <v>716.7538313329096</v>
       </c>
       <c r="U11" t="n">
-        <v>688.8469983903916</v>
+        <v>661.7655302315502</v>
       </c>
       <c r="V11" t="n">
-        <v>688.8469983903916</v>
+        <v>535.3346200593098</v>
       </c>
       <c r="W11" t="n">
-        <v>688.8469983903916</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="X11" t="n">
-        <v>688.8469983903916</v>
+        <v>391.7151440117009</v>
       </c>
       <c r="Y11" t="n">
-        <v>501.0098015490403</v>
+        <v>391.7151440117009</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="C12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="D12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="E12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="F12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="G12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="H12" t="n">
-        <v>177.2521731851156</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="I12" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="J12" t="n">
         <v>14.87670598983502</v>
@@ -5133,37 +5133,37 @@
         <v>531.5168913592909</v>
       </c>
       <c r="O12" t="n">
-        <v>661.5493163343172</v>
+        <v>661.549316334317</v>
       </c>
       <c r="P12" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="Q12" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="R12" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="S12" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="T12" t="n">
-        <v>716.5020025473534</v>
+        <v>716.5020025473532</v>
       </c>
       <c r="U12" t="n">
-        <v>674.5673025630255</v>
+        <v>528.664805706002</v>
       </c>
       <c r="V12" t="n">
-        <v>629.1776678390172</v>
+        <v>340.8276088646507</v>
       </c>
       <c r="W12" t="n">
-        <v>513.9819651145505</v>
+        <v>152.9904120232994</v>
       </c>
       <c r="X12" t="n">
-        <v>492.1640541036045</v>
+        <v>42.82731568214969</v>
       </c>
       <c r="Y12" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983502</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.79200524476437</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="C13" t="n">
-        <v>32.79200524476437</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="D13" t="n">
-        <v>32.79200524476437</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="E13" t="n">
-        <v>49.79161568920703</v>
+        <v>68.37337690298004</v>
       </c>
       <c r="F13" t="n">
-        <v>49.79161568920703</v>
+        <v>68.37337690298004</v>
       </c>
       <c r="G13" t="n">
-        <v>49.79161568920703</v>
+        <v>68.37337690298004</v>
       </c>
       <c r="H13" t="n">
-        <v>49.79161568920703</v>
+        <v>68.37337690298004</v>
       </c>
       <c r="I13" t="n">
-        <v>49.79161568920703</v>
+        <v>68.37337690298004</v>
       </c>
       <c r="J13" t="n">
-        <v>49.79161568920703</v>
+        <v>142.6765520960095</v>
       </c>
       <c r="K13" t="n">
-        <v>176.504922404131</v>
+        <v>142.6765520960095</v>
       </c>
       <c r="L13" t="n">
-        <v>176.504922404131</v>
+        <v>303.7282184086746</v>
       </c>
       <c r="M13" t="n">
-        <v>176.504922404131</v>
+        <v>378.9750162302936</v>
       </c>
       <c r="N13" t="n">
-        <v>176.504922404131</v>
+        <v>378.9750162302936</v>
       </c>
       <c r="O13" t="n">
-        <v>176.504922404131</v>
+        <v>378.9750162302936</v>
       </c>
       <c r="P13" t="n">
-        <v>311.6560898665679</v>
+        <v>378.9750162302936</v>
       </c>
       <c r="Q13" t="n">
         <v>378.9750162302936</v>
       </c>
       <c r="R13" t="n">
-        <v>370.9105697960992</v>
+        <v>370.9105697960991</v>
       </c>
       <c r="S13" t="n">
         <v>330.6799068450229</v>
       </c>
       <c r="T13" t="n">
-        <v>302.3225834625827</v>
+        <v>302.3225834625826</v>
       </c>
       <c r="U13" t="n">
-        <v>208.4400598702995</v>
+        <v>208.4400598702994</v>
       </c>
       <c r="V13" t="n">
-        <v>158.5452794199805</v>
+        <v>158.5452794199804</v>
       </c>
       <c r="W13" t="n">
-        <v>62.99222431826204</v>
+        <v>62.99222431826203</v>
       </c>
       <c r="X13" t="n">
-        <v>36.52124162168787</v>
+        <v>36.52124162168786</v>
       </c>
       <c r="Y13" t="n">
         <v>14.87670598983502</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208.8520916231919</v>
+        <v>358.766746106484</v>
       </c>
       <c r="C14" t="n">
-        <v>208.8520916231919</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="D14" t="n">
-        <v>208.8520916231919</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="E14" t="n">
-        <v>31.31095069086627</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="F14" t="n">
-        <v>31.31095069086627</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="G14" t="n">
-        <v>31.31095069086627</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="H14" t="n">
         <v>14.87670598983502</v>
@@ -5279,49 +5279,49 @@
         <v>131.5065296358406</v>
       </c>
       <c r="K14" t="n">
-        <v>315.605766260049</v>
+        <v>252.4238794416233</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7050028842574</v>
+        <v>297.0763686741034</v>
       </c>
       <c r="M14" t="n">
-        <v>578.2654604534882</v>
+        <v>375.6368262433342</v>
       </c>
       <c r="N14" t="n">
-        <v>651.2546723416244</v>
+        <v>559.7360628675426</v>
       </c>
       <c r="O14" t="n">
-        <v>683.2669566494174</v>
+        <v>743.835299491751</v>
       </c>
       <c r="P14" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="Q14" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="R14" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="S14" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="T14" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="U14" t="n">
-        <v>688.8469983903916</v>
+        <v>743.835299491751</v>
       </c>
       <c r="V14" t="n">
-        <v>562.4160882181512</v>
+        <v>743.835299491751</v>
       </c>
       <c r="W14" t="n">
-        <v>562.4160882181512</v>
+        <v>600.2158234441422</v>
       </c>
       <c r="X14" t="n">
-        <v>396.6892884645432</v>
+        <v>434.4890236905341</v>
       </c>
       <c r="Y14" t="n">
-        <v>208.8520916231919</v>
+        <v>358.766746106484</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.344568377417</v>
+        <v>186.7172461941275</v>
       </c>
       <c r="C15" t="n">
-        <v>165.1309363669317</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="D15" t="n">
-        <v>165.1309363669317</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="E15" t="n">
-        <v>165.1309363669317</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="F15" t="n">
-        <v>165.1309363669317</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="G15" t="n">
         <v>14.87670598983502</v>
@@ -5364,43 +5364,43 @@
         <v>167.5178822620769</v>
       </c>
       <c r="M15" t="n">
-        <v>347.4176547350825</v>
+        <v>347.4176547350824</v>
       </c>
       <c r="N15" t="n">
-        <v>531.5168913592909</v>
+        <v>531.5168913592908</v>
       </c>
       <c r="O15" t="n">
-        <v>661.5493163343172</v>
+        <v>661.549316334317</v>
       </c>
       <c r="P15" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="Q15" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="R15" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="S15" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="T15" t="n">
-        <v>548.1459096863649</v>
+        <v>716.5020025473533</v>
       </c>
       <c r="U15" t="n">
-        <v>506.2112097020369</v>
+        <v>674.5673025630254</v>
       </c>
       <c r="V15" t="n">
-        <v>460.8215749780287</v>
+        <v>486.7301057216741</v>
       </c>
       <c r="W15" t="n">
-        <v>389.1130890806777</v>
+        <v>415.0216198243231</v>
       </c>
       <c r="X15" t="n">
-        <v>367.2951780697317</v>
+        <v>393.2037088133772</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.344568377417</v>
+        <v>365.2530991210626</v>
       </c>
     </row>
     <row r="16">
@@ -5425,58 +5425,58 @@
         <v>14.87670598983502</v>
       </c>
       <c r="G16" t="n">
-        <v>14.87670598983502</v>
+        <v>41.61311026051816</v>
       </c>
       <c r="H16" t="n">
-        <v>14.87670598983502</v>
+        <v>41.61311026051816</v>
       </c>
       <c r="I16" t="n">
-        <v>14.87670598983502</v>
+        <v>71.98791706308313</v>
       </c>
       <c r="J16" t="n">
-        <v>89.17988118286452</v>
+        <v>71.98791706308313</v>
       </c>
       <c r="K16" t="n">
-        <v>89.17988118286452</v>
+        <v>71.98791706308313</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2315474955296</v>
+        <v>233.0395833757482</v>
       </c>
       <c r="M16" t="n">
-        <v>250.2315474955296</v>
+        <v>243.8238487678566</v>
       </c>
       <c r="N16" t="n">
-        <v>250.2315474955296</v>
+        <v>243.8238487678566</v>
       </c>
       <c r="O16" t="n">
-        <v>250.2315474955296</v>
+        <v>243.8238487678566</v>
       </c>
       <c r="P16" t="n">
-        <v>378.9750162302936</v>
+        <v>378.9750162302935</v>
       </c>
       <c r="Q16" t="n">
-        <v>378.9750162302936</v>
+        <v>378.9750162302935</v>
       </c>
       <c r="R16" t="n">
-        <v>370.9105697960992</v>
+        <v>370.910569796099</v>
       </c>
       <c r="S16" t="n">
-        <v>330.6799068450229</v>
+        <v>330.6799068450227</v>
       </c>
       <c r="T16" t="n">
-        <v>302.3225834625827</v>
+        <v>302.3225834625825</v>
       </c>
       <c r="U16" t="n">
-        <v>208.4400598702995</v>
+        <v>208.4400598702993</v>
       </c>
       <c r="V16" t="n">
-        <v>158.5452794199805</v>
+        <v>158.5452794199804</v>
       </c>
       <c r="W16" t="n">
-        <v>62.99222431826204</v>
+        <v>62.99222431826198</v>
       </c>
       <c r="X16" t="n">
-        <v>36.52124162168787</v>
+        <v>36.52124162168784</v>
       </c>
       <c r="Y16" t="n">
         <v>14.87670598983502</v>
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.8284512372354</v>
+        <v>457.8284512372358</v>
       </c>
       <c r="C17" t="n">
-        <v>405.4562295903755</v>
+        <v>405.4562295903748</v>
       </c>
       <c r="D17" t="n">
-        <v>365.6429349525575</v>
+        <v>365.6429349525569</v>
       </c>
       <c r="E17" t="n">
-        <v>291.7824156486701</v>
+        <v>291.7824156486695</v>
       </c>
       <c r="F17" t="n">
-        <v>185.8811513161186</v>
+        <v>185.8811513161181</v>
       </c>
       <c r="G17" t="n">
-        <v>64.16962180501953</v>
+        <v>64.16962180501947</v>
       </c>
       <c r="H17" t="n">
         <v>14.87670598983502</v>
       </c>
       <c r="I17" t="n">
-        <v>37.27313706972604</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="J17" t="n">
-        <v>37.27313706972604</v>
+        <v>198.9759426140434</v>
       </c>
       <c r="K17" t="n">
-        <v>37.27313706972604</v>
+        <v>383.0751792382517</v>
       </c>
       <c r="L17" t="n">
-        <v>81.92562630220617</v>
+        <v>427.7276684707318</v>
       </c>
       <c r="M17" t="n">
-        <v>160.486083871437</v>
+        <v>506.2881260399626</v>
       </c>
       <c r="N17" t="n">
-        <v>233.4752957595732</v>
+        <v>579.2773379280987</v>
       </c>
       <c r="O17" t="n">
-        <v>265.4875800673661</v>
+        <v>611.2896222358917</v>
       </c>
       <c r="P17" t="n">
-        <v>265.4875800673661</v>
+        <v>621.0371258276098</v>
       </c>
       <c r="Q17" t="n">
-        <v>449.5868166915745</v>
+        <v>621.0371258276098</v>
       </c>
       <c r="R17" t="n">
-        <v>551.2041939496064</v>
+        <v>621.0371258276098</v>
       </c>
       <c r="S17" t="n">
-        <v>621.03712582761</v>
+        <v>621.0371258276098</v>
       </c>
       <c r="T17" t="n">
-        <v>696.1119561431616</v>
+        <v>696.1119561431615</v>
       </c>
       <c r="U17" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="V17" t="n">
-        <v>721.0850109479485</v>
+        <v>721.0850109479484</v>
       </c>
       <c r="W17" t="n">
         <v>681.1461565287775</v>
@@ -5558,7 +5558,7 @@
         <v>619.0999784036072</v>
       </c>
       <c r="Y17" t="n">
-        <v>534.3236456079887</v>
+        <v>534.3236456079889</v>
       </c>
     </row>
     <row r="18">
@@ -5595,49 +5595,49 @@
         <v>14.87670598983502</v>
       </c>
       <c r="K18" t="n">
-        <v>51.70762461639531</v>
+        <v>51.70762461639525</v>
       </c>
       <c r="L18" t="n">
-        <v>167.5178822620769</v>
+        <v>167.5178822620768</v>
       </c>
       <c r="M18" t="n">
-        <v>347.4176547350825</v>
+        <v>347.4176547350824</v>
       </c>
       <c r="N18" t="n">
-        <v>531.5168913592909</v>
+        <v>531.5168913592908</v>
       </c>
       <c r="O18" t="n">
-        <v>661.5493163343172</v>
+        <v>661.549316334317</v>
       </c>
       <c r="P18" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="Q18" t="n">
-        <v>743.8352994917511</v>
+        <v>735.9831065277161</v>
       </c>
       <c r="R18" t="n">
-        <v>743.8352994917511</v>
+        <v>599.4582527128501</v>
       </c>
       <c r="S18" t="n">
-        <v>743.8352994917511</v>
+        <v>599.4582527128501</v>
       </c>
       <c r="T18" t="n">
-        <v>743.8352994917511</v>
+        <v>599.4582527128501</v>
       </c>
       <c r="U18" t="n">
-        <v>555.9981026503998</v>
+        <v>411.6210558714989</v>
       </c>
       <c r="V18" t="n">
-        <v>368.1609058090485</v>
+        <v>411.6210558714989</v>
       </c>
       <c r="W18" t="n">
-        <v>368.1609058090485</v>
+        <v>223.7838590301476</v>
       </c>
       <c r="X18" t="n">
-        <v>180.3237089676972</v>
+        <v>223.7838590301476</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.87670598983502</v>
+        <v>35.94666218879632</v>
       </c>
     </row>
     <row r="19">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.8284512372354</v>
+        <v>457.8284512372353</v>
       </c>
       <c r="C20" t="n">
-        <v>405.4562295903754</v>
+        <v>405.4562295903755</v>
       </c>
       <c r="D20" t="n">
-        <v>365.6429349525579</v>
+        <v>365.6429349525577</v>
       </c>
       <c r="E20" t="n">
-        <v>291.7824156486705</v>
+        <v>291.7824156486704</v>
       </c>
       <c r="F20" t="n">
-        <v>185.881151316119</v>
+        <v>185.8811513161193</v>
       </c>
       <c r="G20" t="n">
-        <v>64.16962180501953</v>
+        <v>64.16962180501947</v>
       </c>
       <c r="H20" t="n">
         <v>14.87670598983502</v>
       </c>
       <c r="I20" t="n">
-        <v>71.14516206484338</v>
+        <v>71.14516206484343</v>
       </c>
       <c r="J20" t="n">
-        <v>71.14516206484338</v>
+        <v>229.9042426118707</v>
       </c>
       <c r="K20" t="n">
-        <v>71.14516206484338</v>
+        <v>414.003479236079</v>
       </c>
       <c r="L20" t="n">
-        <v>115.7976512973235</v>
+        <v>458.6559684685591</v>
       </c>
       <c r="M20" t="n">
-        <v>194.3581088665543</v>
+        <v>537.2164260377899</v>
       </c>
       <c r="N20" t="n">
-        <v>267.3473207546905</v>
+        <v>610.2056379259261</v>
       </c>
       <c r="O20" t="n">
-        <v>299.3596050624835</v>
+        <v>642.217922233719</v>
       </c>
       <c r="P20" t="n">
-        <v>340.5624103829176</v>
+        <v>642.217922233719</v>
       </c>
       <c r="Q20" t="n">
-        <v>524.661647007126</v>
+        <v>642.217922233719</v>
       </c>
       <c r="R20" t="n">
-        <v>626.279024265158</v>
+        <v>743.835299491751</v>
       </c>
       <c r="S20" t="n">
-        <v>696.1119561431616</v>
+        <v>743.835299491751</v>
       </c>
       <c r="T20" t="n">
-        <v>696.1119561431616</v>
+        <v>743.835299491751</v>
       </c>
       <c r="U20" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="V20" t="n">
         <v>721.0850109479486</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>273.825176169411</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="C21" t="n">
-        <v>273.825176169411</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="D21" t="n">
-        <v>273.825176169411</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="E21" t="n">
-        <v>273.825176169411</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="F21" t="n">
-        <v>273.825176169411</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="G21" t="n">
-        <v>123.5709457923142</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5709457923142</v>
+        <v>14.87670598983502</v>
       </c>
       <c r="I21" t="n">
         <v>14.87670598983502</v>
@@ -5832,49 +5832,49 @@
         <v>14.87670598983502</v>
       </c>
       <c r="K21" t="n">
-        <v>51.70762461639532</v>
+        <v>51.70762461639531</v>
       </c>
       <c r="L21" t="n">
-        <v>167.5178822620769</v>
+        <v>167.5178822620768</v>
       </c>
       <c r="M21" t="n">
-        <v>347.4176547350825</v>
+        <v>347.4176547350824</v>
       </c>
       <c r="N21" t="n">
-        <v>531.5168913592909</v>
+        <v>531.5168913592908</v>
       </c>
       <c r="O21" t="n">
-        <v>661.5493163343172</v>
+        <v>661.549316334317</v>
       </c>
       <c r="P21" t="n">
-        <v>743.8352994917511</v>
+        <v>743.835299491751</v>
       </c>
       <c r="Q21" t="n">
-        <v>735.9831065277162</v>
+        <v>743.835299491751</v>
       </c>
       <c r="R21" t="n">
-        <v>735.9831065277162</v>
+        <v>743.835299491751</v>
       </c>
       <c r="S21" t="n">
-        <v>735.9831065277162</v>
+        <v>743.835299491751</v>
       </c>
       <c r="T21" t="n">
-        <v>649.4995698521136</v>
+        <v>555.9981026503997</v>
       </c>
       <c r="U21" t="n">
-        <v>461.6623730107623</v>
+        <v>368.1609058090484</v>
       </c>
       <c r="V21" t="n">
-        <v>461.6623730107623</v>
+        <v>368.1609058090484</v>
       </c>
       <c r="W21" t="n">
-        <v>461.6623730107623</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="X21" t="n">
-        <v>273.825176169411</v>
+        <v>202.7139028311863</v>
       </c>
       <c r="Y21" t="n">
-        <v>273.825176169411</v>
+        <v>202.7139028311863</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>457.8284512372354</v>
+        <v>457.8284512372362</v>
       </c>
       <c r="C23" t="n">
-        <v>405.4562295903754</v>
+        <v>405.4562295903763</v>
       </c>
       <c r="D23" t="n">
-        <v>365.6429349525575</v>
+        <v>365.6429349525583</v>
       </c>
       <c r="E23" t="n">
-        <v>291.78241564867</v>
+        <v>291.7824156486704</v>
       </c>
       <c r="F23" t="n">
-        <v>185.8811513161185</v>
+        <v>185.881151316119</v>
       </c>
       <c r="G23" t="n">
-        <v>64.16962180501953</v>
+        <v>64.16962180501947</v>
       </c>
       <c r="H23" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I23" t="n">
-        <v>71.14516206484338</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J23" t="n">
-        <v>71.14516206484338</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K23" t="n">
-        <v>71.14516206484338</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="L23" t="n">
-        <v>115.7976512973235</v>
+        <v>59.52919522231514</v>
       </c>
       <c r="M23" t="n">
-        <v>194.3581088665543</v>
+        <v>243.6284318465236</v>
       </c>
       <c r="N23" t="n">
-        <v>267.3473207546905</v>
+        <v>427.7276684707321</v>
       </c>
       <c r="O23" t="n">
-        <v>299.3596050624834</v>
+        <v>459.7399527785249</v>
       </c>
       <c r="P23" t="n">
-        <v>299.3596050624834</v>
+        <v>598.9275372981961</v>
       </c>
       <c r="Q23" t="n">
-        <v>449.5868166915745</v>
+        <v>598.9275372981961</v>
       </c>
       <c r="R23" t="n">
-        <v>551.2041939496064</v>
+        <v>598.9275372981961</v>
       </c>
       <c r="S23" t="n">
-        <v>621.03712582761</v>
+        <v>668.7604691761996</v>
       </c>
       <c r="T23" t="n">
-        <v>696.1119561431616</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="U23" t="n">
-        <v>743.8352994917511</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="V23" t="n">
-        <v>721.0850109479485</v>
+        <v>721.0850109479488</v>
       </c>
       <c r="W23" t="n">
-        <v>681.1461565287775</v>
+        <v>681.1461565287782</v>
       </c>
       <c r="X23" t="n">
-        <v>619.0999784036072</v>
+        <v>619.099978403608</v>
       </c>
       <c r="Y23" t="n">
-        <v>534.3236456079887</v>
+        <v>534.3236456079894</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J24" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K24" t="n">
         <v>51.70762461639531</v>
@@ -6075,43 +6075,43 @@
         <v>167.5178822620769</v>
       </c>
       <c r="M24" t="n">
-        <v>347.4176547350825</v>
+        <v>347.4176547350824</v>
       </c>
       <c r="N24" t="n">
         <v>531.5168913592909</v>
       </c>
       <c r="O24" t="n">
-        <v>661.5493163343172</v>
+        <v>661.5493163343174</v>
       </c>
       <c r="P24" t="n">
-        <v>743.8352994917511</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="Q24" t="n">
-        <v>735.9831065277162</v>
+        <v>735.9831065277165</v>
       </c>
       <c r="R24" t="n">
-        <v>599.4582527128503</v>
+        <v>735.9831065277165</v>
       </c>
       <c r="S24" t="n">
-        <v>411.6210558714989</v>
+        <v>548.1459096863651</v>
       </c>
       <c r="T24" t="n">
-        <v>411.6210558714989</v>
+        <v>548.1459096863651</v>
       </c>
       <c r="U24" t="n">
-        <v>411.6210558714989</v>
+        <v>548.1459096863651</v>
       </c>
       <c r="V24" t="n">
-        <v>411.6210558714989</v>
+        <v>390.5510996725377</v>
       </c>
       <c r="W24" t="n">
-        <v>256.3951302239877</v>
+        <v>202.7139028311864</v>
       </c>
       <c r="X24" t="n">
-        <v>256.3951302239877</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.55793338263638</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="L25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="M25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="N25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="O25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="P25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="R25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="S25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="T25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="U25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="V25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="W25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="X25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.87670598983502</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1016.417199625509</v>
       </c>
       <c r="C26" t="n">
-        <v>879.0228057690966</v>
+        <v>879.0228057690961</v>
       </c>
       <c r="D26" t="n">
-        <v>754.1873389217261</v>
+        <v>754.1873389217255</v>
       </c>
       <c r="E26" t="n">
-        <v>595.304647408286</v>
+        <v>595.3046474082855</v>
       </c>
       <c r="F26" t="n">
-        <v>404.3812108661821</v>
+        <v>404.3812108661815</v>
       </c>
       <c r="G26" t="n">
-        <v>197.64750914553</v>
+        <v>197.6475091455295</v>
       </c>
       <c r="H26" t="n">
-        <v>63.33242112079252</v>
+        <v>63.3324211207925</v>
       </c>
       <c r="I26" t="n">
         <v>35.72118256597751</v>
@@ -6248,7 +6248,7 @@
         <v>1767.771982023426</v>
       </c>
       <c r="R26" t="n">
-        <v>1786.059128298875</v>
+        <v>1786.059128298876</v>
       </c>
       <c r="S26" t="n">
         <v>1772.287779350218</v>
@@ -6257,10 +6257,10 @@
         <v>1763.864760610262</v>
       </c>
       <c r="U26" t="n">
-        <v>1727.534908927788</v>
+        <v>1727.534908927787</v>
       </c>
       <c r="V26" t="n">
-        <v>1619.762448174433</v>
+        <v>1619.762448174432</v>
       </c>
       <c r="W26" t="n">
         <v>1494.801421545709</v>
@@ -6269,7 +6269,7 @@
         <v>1347.733071210986</v>
       </c>
       <c r="Y26" t="n">
-        <v>1177.934566205815</v>
+        <v>1177.934566205814</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.1488988487334</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="C27" t="n">
-        <v>196.1488988487334</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="D27" t="n">
-        <v>196.1488988487334</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="E27" t="n">
-        <v>196.1488988487334</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="F27" t="n">
         <v>35.72118256597751</v>
@@ -6324,31 +6324,31 @@
         <v>783.661613152451</v>
       </c>
       <c r="Q27" t="n">
-        <v>783.661613152451</v>
+        <v>775.8094201884161</v>
       </c>
       <c r="R27" t="n">
-        <v>783.661613152451</v>
+        <v>639.2845663735501</v>
       </c>
       <c r="S27" t="n">
-        <v>783.661613152451</v>
+        <v>639.2845663735501</v>
       </c>
       <c r="T27" t="n">
-        <v>782.8389585909733</v>
+        <v>638.4619118120725</v>
       </c>
       <c r="U27" t="n">
-        <v>543.2141752342877</v>
+        <v>560.6510917975422</v>
       </c>
       <c r="V27" t="n">
-        <v>300.1344571379218</v>
+        <v>533.9199064924193</v>
       </c>
       <c r="W27" t="n">
-        <v>208.6005207142236</v>
+        <v>264.5213372227106</v>
       </c>
       <c r="X27" t="n">
-        <v>205.4410591221629</v>
+        <v>45.01334283940695</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.1488988487334</v>
+        <v>35.72118256597751</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>35.72118256597751</v>
       </c>
       <c r="C28" t="n">
-        <v>35.72118256597751</v>
+        <v>82.97177039242206</v>
       </c>
       <c r="D28" t="n">
-        <v>35.72118256597751</v>
+        <v>82.97177039242206</v>
       </c>
       <c r="E28" t="n">
-        <v>35.72118256597751</v>
+        <v>82.97177039242206</v>
       </c>
       <c r="F28" t="n">
-        <v>35.72118256597751</v>
+        <v>82.97177039242206</v>
       </c>
       <c r="G28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="H28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="I28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="J28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="K28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="L28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="M28" t="n">
-        <v>35.72118256597751</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="N28" t="n">
-        <v>107.707586702159</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="O28" t="n">
-        <v>107.707586702159</v>
+        <v>107.7075867021588</v>
       </c>
       <c r="P28" t="n">
-        <v>261.1459004400452</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.1459004400452</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="R28" t="n">
-        <v>261.1459004400452</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="S28" t="n">
-        <v>239.5736869078542</v>
+        <v>239.573686907854</v>
       </c>
       <c r="T28" t="n">
-        <v>229.8748129442991</v>
+        <v>229.874812944299</v>
       </c>
       <c r="U28" t="n">
-        <v>154.6507387709011</v>
+        <v>154.650738770901</v>
       </c>
       <c r="V28" t="n">
         <v>123.4144077394673</v>
       </c>
       <c r="W28" t="n">
-        <v>46.51980205663412</v>
+        <v>46.51980205663407</v>
       </c>
       <c r="X28" t="n">
-        <v>38.70726877894515</v>
+        <v>38.70726877894513</v>
       </c>
       <c r="Y28" t="n">
         <v>35.72118256597751</v>
@@ -6440,37 +6440,37 @@
         <v>1016.417199625509</v>
       </c>
       <c r="C29" t="n">
-        <v>879.0228057690967</v>
+        <v>879.0228057690963</v>
       </c>
       <c r="D29" t="n">
-        <v>754.1873389217262</v>
+        <v>754.1873389217258</v>
       </c>
       <c r="E29" t="n">
-        <v>595.3046474082862</v>
+        <v>595.3046474082856</v>
       </c>
       <c r="F29" t="n">
-        <v>404.3812108661822</v>
+        <v>404.3812108661816</v>
       </c>
       <c r="G29" t="n">
-        <v>197.6475091455302</v>
+        <v>197.6475091455296</v>
       </c>
       <c r="H29" t="n">
-        <v>63.33242112079303</v>
+        <v>63.3324211207925</v>
       </c>
       <c r="I29" t="n">
         <v>35.72118256597751</v>
       </c>
       <c r="J29" t="n">
-        <v>170.6381524874325</v>
+        <v>170.6381524874326</v>
       </c>
       <c r="K29" t="n">
-        <v>374.3541936033922</v>
+        <v>374.3541936033923</v>
       </c>
       <c r="L29" t="n">
-        <v>631.0498798245698</v>
+        <v>631.0498798245696</v>
       </c>
       <c r="M29" t="n">
-        <v>921.6535343824976</v>
+        <v>921.6535343824975</v>
       </c>
       <c r="N29" t="n">
         <v>1206.685943259331</v>
@@ -6479,7 +6479,7 @@
         <v>1450.741424555821</v>
       </c>
       <c r="P29" t="n">
-        <v>1645.958792955442</v>
+        <v>1645.958792955441</v>
       </c>
       <c r="Q29" t="n">
         <v>1767.771982023426</v>
@@ -6491,7 +6491,7 @@
         <v>1772.287779350218</v>
       </c>
       <c r="T29" t="n">
-        <v>1763.864760610262</v>
+        <v>1763.864760610261</v>
       </c>
       <c r="U29" t="n">
         <v>1727.534908927788</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.632798793966</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="C30" t="n">
-        <v>234.632798793966</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="D30" t="n">
-        <v>162.7958666431152</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="E30" t="n">
-        <v>162.7958666431152</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="F30" t="n">
-        <v>162.7958666431152</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="G30" t="n">
-        <v>162.7958666431152</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="H30" t="n">
         <v>35.72118256597751</v>
@@ -6564,28 +6564,28 @@
         <v>783.661613152451</v>
       </c>
       <c r="R30" t="n">
-        <v>783.661613152451</v>
+        <v>647.136759337585</v>
       </c>
       <c r="S30" t="n">
-        <v>783.661613152451</v>
+        <v>453.4778037224384</v>
       </c>
       <c r="T30" t="n">
-        <v>782.8389585909733</v>
+        <v>367.5788095717421</v>
       </c>
       <c r="U30" t="n">
-        <v>543.2141752342877</v>
+        <v>127.9540262150565</v>
       </c>
       <c r="V30" t="n">
-        <v>516.4829899291648</v>
+        <v>101.2228409099335</v>
       </c>
       <c r="W30" t="n">
-        <v>247.0844206594561</v>
+        <v>48.17280443146768</v>
       </c>
       <c r="X30" t="n">
-        <v>243.9249590673954</v>
+        <v>45.01334283940695</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.632798793966</v>
+        <v>35.72118256597751</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>35.72118256597751</v>
       </c>
       <c r="D31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="E31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="F31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="G31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="H31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="I31" t="n">
-        <v>35.72118256597751</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="J31" t="n">
-        <v>128.3115040344564</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="K31" t="n">
-        <v>128.3115040344564</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="L31" t="n">
-        <v>250.7627181147494</v>
+        <v>74.98900165935456</v>
       </c>
       <c r="M31" t="n">
-        <v>250.7627181147494</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="N31" t="n">
-        <v>250.7627181147494</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="O31" t="n">
-        <v>250.7627181147494</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="P31" t="n">
-        <v>250.7627181147494</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="Q31" t="n">
-        <v>250.7627181147494</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="R31" t="n">
-        <v>261.1459004400449</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="S31" t="n">
-        <v>239.5736869078539</v>
+        <v>239.573686907854</v>
       </c>
       <c r="T31" t="n">
-        <v>229.8748129442989</v>
+        <v>229.874812944299</v>
       </c>
       <c r="U31" t="n">
-        <v>154.6507387709009</v>
+        <v>154.650738770901</v>
       </c>
       <c r="V31" t="n">
-        <v>123.4144077394672</v>
+        <v>123.4144077394673</v>
       </c>
       <c r="W31" t="n">
-        <v>46.51980205663401</v>
+        <v>46.51980205663407</v>
       </c>
       <c r="X31" t="n">
-        <v>38.7072687789451</v>
+        <v>38.70726877894513</v>
       </c>
       <c r="Y31" t="n">
         <v>35.72118256597751</v>
@@ -6698,16 +6698,16 @@
         <v>35.72118256597751</v>
       </c>
       <c r="J32" t="n">
-        <v>170.6381524874325</v>
+        <v>170.6381524874324</v>
       </c>
       <c r="K32" t="n">
         <v>374.3541936033922</v>
       </c>
       <c r="L32" t="n">
-        <v>631.0498798245695</v>
+        <v>631.0498798245694</v>
       </c>
       <c r="M32" t="n">
-        <v>921.6535343824975</v>
+        <v>921.6535343824974</v>
       </c>
       <c r="N32" t="n">
         <v>1206.685943259331</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>450.9813315852087</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="C33" t="n">
-        <v>450.9813315852087</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="D33" t="n">
-        <v>290.2012153462405</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="E33" t="n">
-        <v>116.6380114676549</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="F33" t="n">
-        <v>116.6380114676549</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="G33" t="n">
-        <v>116.6380114676549</v>
+        <v>35.72118256597751</v>
       </c>
       <c r="H33" t="n">
         <v>35.72118256597751</v>
@@ -6798,31 +6798,31 @@
         <v>783.661613152451</v>
       </c>
       <c r="Q33" t="n">
-        <v>783.661613152451</v>
+        <v>775.8094201884161</v>
       </c>
       <c r="R33" t="n">
-        <v>783.661613152451</v>
+        <v>639.2845663735501</v>
       </c>
       <c r="S33" t="n">
-        <v>783.661613152451</v>
+        <v>445.6256107584035</v>
       </c>
       <c r="T33" t="n">
-        <v>782.8389585909733</v>
+        <v>444.8029561969258</v>
       </c>
       <c r="U33" t="n">
-        <v>759.5627080255306</v>
+        <v>205.1781728402402</v>
       </c>
       <c r="V33" t="n">
-        <v>732.8315227204076</v>
+        <v>178.4469875351172</v>
       </c>
       <c r="W33" t="n">
-        <v>679.7814862419418</v>
+        <v>125.3969510566514</v>
       </c>
       <c r="X33" t="n">
-        <v>460.2734918586382</v>
+        <v>45.01334283940695</v>
       </c>
       <c r="Y33" t="n">
-        <v>450.9813315852087</v>
+        <v>35.72118256597751</v>
       </c>
     </row>
     <row r="34">
@@ -6865,16 +6865,16 @@
         <v>35.72118256597751</v>
       </c>
       <c r="M34" t="n">
-        <v>35.72118256597751</v>
+        <v>66.35734708712656</v>
       </c>
       <c r="N34" t="n">
-        <v>35.72118256597751</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="O34" t="n">
-        <v>35.72118256597751</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="P34" t="n">
-        <v>189.1594963038638</v>
+        <v>261.1459004400451</v>
       </c>
       <c r="Q34" t="n">
         <v>261.1459004400451</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.2984538575787</v>
+        <v>623.2984538575786</v>
       </c>
       <c r="C35" t="n">
-        <v>544.3425268717128</v>
+        <v>544.3425268717127</v>
       </c>
       <c r="D35" t="n">
-        <v>477.9455268948891</v>
+        <v>477.9455268948889</v>
       </c>
       <c r="E35" t="n">
-        <v>377.5013022519957</v>
+        <v>377.5013022519954</v>
       </c>
       <c r="F35" t="n">
-        <v>245.0163325804383</v>
+        <v>245.0163325804378</v>
       </c>
       <c r="G35" t="n">
-        <v>96.72109773033293</v>
+        <v>96.72109773033299</v>
       </c>
       <c r="H35" t="n">
         <v>20.84447657614249</v>
       </c>
       <c r="I35" t="n">
-        <v>51.05824304839112</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="J35" t="n">
-        <v>243.2507543496689</v>
+        <v>213.0369878774202</v>
       </c>
       <c r="K35" t="n">
-        <v>253.2616763210856</v>
+        <v>213.0369878774202</v>
       </c>
       <c r="L35" t="n">
-        <v>511.2120739508489</v>
+        <v>257.6894771099003</v>
       </c>
       <c r="M35" t="n">
-        <v>589.7725315200797</v>
+        <v>515.6398747396636</v>
       </c>
       <c r="N35" t="n">
-        <v>662.7617434082159</v>
+        <v>773.5902723694269</v>
       </c>
       <c r="O35" t="n">
-        <v>694.7740277160088</v>
+        <v>949.4254458190887</v>
       </c>
       <c r="P35" t="n">
-        <v>694.7740277160088</v>
+        <v>949.4254458190887</v>
       </c>
       <c r="Q35" t="n">
-        <v>873.8627581638164</v>
+        <v>949.4254458190887</v>
       </c>
       <c r="R35" t="n">
-        <v>949.4254458190886</v>
+        <v>949.4254458190887</v>
       </c>
       <c r="S35" t="n">
         <v>993.2036880943325</v>
@@ -6974,7 +6974,7 @@
         <v>992.8898349243159</v>
       </c>
       <c r="W35" t="n">
-        <v>926.3672751661389</v>
+        <v>926.3672751661386</v>
       </c>
       <c r="X35" t="n">
         <v>837.7373917019625</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>705.0277872434885</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="C36" t="n">
-        <v>515.6155129764522</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="D36" t="n">
-        <v>354.835396737484</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2721928588984</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="F36" t="n">
         <v>20.84447657614249</v>
@@ -7041,25 +7041,25 @@
         <v>768.7849071626159</v>
       </c>
       <c r="S36" t="n">
-        <v>768.7849071626159</v>
+        <v>575.1259515474693</v>
       </c>
       <c r="T36" t="n">
-        <v>768.7849071626159</v>
+        <v>575.1259515474693</v>
       </c>
       <c r="U36" t="n">
-        <v>768.7849071626159</v>
+        <v>575.1259515474693</v>
       </c>
       <c r="V36" t="n">
-        <v>768.7849071626159</v>
+        <v>503.5403065168008</v>
       </c>
       <c r="W36" t="n">
-        <v>768.7849071626159</v>
+        <v>240.3524709594461</v>
       </c>
       <c r="X36" t="n">
-        <v>768.7849071626159</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="Y36" t="n">
-        <v>768.7849071626159</v>
+        <v>20.84447657614249</v>
       </c>
     </row>
     <row r="37">
@@ -7096,40 +7096,40 @@
         <v>20.84447657614249</v>
       </c>
       <c r="K37" t="n">
-        <v>56.08622269128028</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="L37" t="n">
-        <v>56.08622269128028</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="M37" t="n">
-        <v>56.08622269128028</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="N37" t="n">
-        <v>56.08622269128028</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="O37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="P37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="R37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="S37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="T37" t="n">
-        <v>56.08622269128028</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="U37" t="n">
-        <v>39.30061538842899</v>
+        <v>39.30061538842905</v>
       </c>
       <c r="V37" t="n">
-        <v>39.30061538842899</v>
+        <v>39.30061538842905</v>
       </c>
       <c r="W37" t="n">
         <v>20.84447657614249</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.2984538575788</v>
+        <v>623.298453857579</v>
       </c>
       <c r="C38" t="n">
-        <v>544.3425268717129</v>
+        <v>544.3425268717133</v>
       </c>
       <c r="D38" t="n">
-        <v>477.945526894889</v>
+        <v>477.9455268948893</v>
       </c>
       <c r="E38" t="n">
-        <v>377.5013022519955</v>
+        <v>377.5013022519959</v>
       </c>
       <c r="F38" t="n">
-        <v>245.0163325804381</v>
+        <v>245.0163325804384</v>
       </c>
       <c r="G38" t="n">
         <v>96.72109773033299</v>
@@ -7172,31 +7172,31 @@
         <v>51.05824304839106</v>
       </c>
       <c r="J38" t="n">
-        <v>243.2507543496688</v>
+        <v>243.2507543496687</v>
       </c>
       <c r="K38" t="n">
-        <v>501.2011519794321</v>
+        <v>243.2507543496687</v>
       </c>
       <c r="L38" t="n">
-        <v>744.1948383080991</v>
+        <v>501.201151979432</v>
       </c>
       <c r="M38" t="n">
-        <v>822.7552958773299</v>
+        <v>759.1515496091954</v>
       </c>
       <c r="N38" t="n">
-        <v>895.7445077654661</v>
+        <v>939.5227500407099</v>
       </c>
       <c r="O38" t="n">
-        <v>927.756792073259</v>
+        <v>971.5350343485028</v>
       </c>
       <c r="P38" t="n">
-        <v>927.756792073259</v>
+        <v>971.5350343485028</v>
       </c>
       <c r="Q38" t="n">
-        <v>927.756792073259</v>
+        <v>971.5350343485028</v>
       </c>
       <c r="R38" t="n">
-        <v>927.756792073259</v>
+        <v>971.5350343485028</v>
       </c>
       <c r="S38" t="n">
         <v>971.5350343485028</v>
@@ -7211,13 +7211,13 @@
         <v>992.8898349243159</v>
       </c>
       <c r="W38" t="n">
-        <v>926.3672751661388</v>
+        <v>926.3672751661389</v>
       </c>
       <c r="X38" t="n">
-        <v>837.7373917019626</v>
+        <v>837.7373917019627</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.3773535673381</v>
+        <v>726.3773535673382</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.8925701522096</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="C39" t="n">
-        <v>22.8925701522096</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="D39" t="n">
-        <v>22.8925701522096</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="E39" t="n">
-        <v>22.8925701522096</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="F39" t="n">
         <v>20.84447657614249</v>
@@ -7281,22 +7281,22 @@
         <v>768.7849071626159</v>
       </c>
       <c r="T39" t="n">
-        <v>768.7849071626159</v>
+        <v>551.6137198098953</v>
       </c>
       <c r="U39" t="n">
-        <v>529.1601238059302</v>
+        <v>551.6137198098953</v>
       </c>
       <c r="V39" t="n">
-        <v>286.0804057095643</v>
+        <v>551.6137198098953</v>
       </c>
       <c r="W39" t="n">
-        <v>22.8925701522096</v>
+        <v>551.6137198098953</v>
       </c>
       <c r="X39" t="n">
-        <v>22.8925701522096</v>
+        <v>425.0210225677499</v>
       </c>
       <c r="Y39" t="n">
-        <v>22.8925701522096</v>
+        <v>199.3803295030776</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="C40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="D40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="E40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="F40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="G40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="I40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="J40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="K40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="L40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="M40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="N40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="O40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="P40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.04915109977043</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="R40" t="n">
-        <v>37.63008387899383</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="S40" t="n">
-        <v>37.63008387899383</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="T40" t="n">
-        <v>37.63008387899383</v>
+        <v>56.0862226912804</v>
       </c>
       <c r="U40" t="n">
+        <v>39.30061538842905</v>
+      </c>
+      <c r="V40" t="n">
+        <v>39.30061538842905</v>
+      </c>
+      <c r="W40" t="n">
         <v>20.84447657614249</v>
       </c>
-      <c r="V40" t="n">
-        <v>47.50528991205699</v>
-      </c>
-      <c r="W40" t="n">
-        <v>29.04915109977043</v>
-      </c>
       <c r="X40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.04915109977043</v>
+        <v>20.84447657614249</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>712.6497545972682</v>
+        <v>541.0516560439913</v>
       </c>
       <c r="C41" t="n">
-        <v>602.8665992956707</v>
+        <v>431.2685007423938</v>
       </c>
       <c r="D41" t="n">
-        <v>602.8665992956707</v>
+        <v>334.0442724498382</v>
       </c>
       <c r="E41" t="n">
-        <v>471.5951463370457</v>
+        <v>202.7728194912131</v>
       </c>
       <c r="F41" t="n">
-        <v>308.2829483497566</v>
+        <v>202.7728194912131</v>
       </c>
       <c r="G41" t="n">
-        <v>129.1604851839191</v>
+        <v>129.1604851839192</v>
       </c>
       <c r="H41" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I41" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J41" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K41" t="n">
-        <v>253.2344517375311</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="L41" t="n">
-        <v>531.1353186982453</v>
+        <v>300.3575026747111</v>
       </c>
       <c r="M41" t="n">
-        <v>780.5477843878093</v>
+        <v>378.9179602439419</v>
       </c>
       <c r="N41" t="n">
-        <v>1058.448651348524</v>
+        <v>656.8188272046559</v>
       </c>
       <c r="O41" t="n">
-        <v>1090.460935656316</v>
+        <v>822.8328711660976</v>
       </c>
       <c r="P41" t="n">
-        <v>1090.460935656316</v>
+        <v>1045.112014473292</v>
       </c>
       <c r="Q41" t="n">
-        <v>1090.460935656316</v>
+        <v>1045.112014473292</v>
       </c>
       <c r="R41" t="n">
         <v>1090.460935656316</v>
       </c>
       <c r="S41" t="n">
-        <v>1104.025411459312</v>
+        <v>1104.025411459311</v>
       </c>
       <c r="T41" t="n">
-        <v>1122.831785699855</v>
+        <v>1122.831785699854</v>
       </c>
       <c r="U41" t="n">
-        <v>1122.831785699855</v>
+        <v>1114.113172572195</v>
       </c>
       <c r="V41" t="n">
-        <v>1108.200260853023</v>
+        <v>1033.951950373655</v>
       </c>
       <c r="W41" t="n">
-        <v>1108.200260853023</v>
+        <v>936.6021622997464</v>
       </c>
       <c r="X41" t="n">
-        <v>988.7431490731152</v>
+        <v>817.1450505198385</v>
       </c>
       <c r="Y41" t="n">
-        <v>846.555882622759</v>
+        <v>674.9577840694823</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356.7999558315508</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="C42" t="n">
-        <v>356.7999558315508</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="D42" t="n">
-        <v>196.0198395925826</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="E42" t="n">
-        <v>22.4566357139971</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="F42" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="G42" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="H42" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I42" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J42" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K42" t="n">
-        <v>59.28755434055739</v>
+        <v>59.28755434055737</v>
       </c>
       <c r="L42" t="n">
         <v>175.097811986239</v>
@@ -7500,40 +7500,40 @@
         <v>354.9975844592445</v>
       </c>
       <c r="N42" t="n">
-        <v>558.0786581680103</v>
+        <v>558.0786581680102</v>
       </c>
       <c r="O42" t="n">
-        <v>688.1110831430366</v>
+        <v>688.1110831430365</v>
       </c>
       <c r="P42" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="Q42" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="R42" t="n">
-        <v>770.3970663004706</v>
+        <v>633.8722124856045</v>
       </c>
       <c r="S42" t="n">
-        <v>770.3970663004706</v>
+        <v>633.8722124856045</v>
       </c>
       <c r="T42" t="n">
-        <v>770.3970663004706</v>
+        <v>416.7010251328838</v>
       </c>
       <c r="U42" t="n">
-        <v>770.3970663004706</v>
+        <v>416.7010251328838</v>
       </c>
       <c r="V42" t="n">
-        <v>770.3970663004706</v>
+        <v>173.6213070365179</v>
       </c>
       <c r="W42" t="n">
-        <v>535.3358087584859</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="X42" t="n">
-        <v>535.3358087584859</v>
+        <v>148.1825091128671</v>
       </c>
       <c r="Y42" t="n">
-        <v>535.3358087584859</v>
+        <v>148.1825091128671</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="C43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="D43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="E43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="F43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="G43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="H43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="L43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="M43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="N43" t="n">
-        <v>22.4566357139971</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="O43" t="n">
-        <v>22.4566357139971</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="P43" t="n">
-        <v>22.4566357139971</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.53297370434714</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="R43" t="n">
-        <v>122.9779309372168</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9779309372168</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9779309372168</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="U43" t="n">
-        <v>75.36509531863392</v>
+        <v>75.36509531863408</v>
       </c>
       <c r="V43" t="n">
-        <v>71.74000284201522</v>
+        <v>71.74000284201529</v>
       </c>
       <c r="W43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="X43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>712.6497545972682</v>
+        <v>674.9577840694824</v>
       </c>
       <c r="C44" t="n">
-        <v>602.8665992956705</v>
+        <v>565.174628767885</v>
       </c>
       <c r="D44" t="n">
-        <v>602.8665992956705</v>
+        <v>467.9504004753296</v>
       </c>
       <c r="E44" t="n">
-        <v>471.5951463370454</v>
+        <v>336.6789475167045</v>
       </c>
       <c r="F44" t="n">
-        <v>308.2829483497563</v>
+        <v>173.3667495294159</v>
       </c>
       <c r="G44" t="n">
-        <v>129.1604851839193</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="H44" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I44" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J44" t="n">
-        <v>184.4353805430262</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K44" t="n">
-        <v>415.2131965665601</v>
+        <v>253.234451737531</v>
       </c>
       <c r="L44" t="n">
-        <v>459.8656857990403</v>
+        <v>297.8869409700111</v>
       </c>
       <c r="M44" t="n">
-        <v>538.426143368271</v>
+        <v>376.4473985392419</v>
       </c>
       <c r="N44" t="n">
-        <v>816.3270103289851</v>
+        <v>654.3482654999559</v>
       </c>
       <c r="O44" t="n">
-        <v>848.339294636778</v>
+        <v>692.7642814310822</v>
       </c>
       <c r="P44" t="n">
-        <v>896.2370504977343</v>
+        <v>915.0434247382768</v>
       </c>
       <c r="Q44" t="n">
-        <v>1045.112014473293</v>
+        <v>1063.918388713836</v>
       </c>
       <c r="R44" t="n">
-        <v>1090.460935656317</v>
+        <v>1109.267309896859</v>
       </c>
       <c r="S44" t="n">
-        <v>1104.025411459312</v>
+        <v>1122.831785699854</v>
       </c>
       <c r="T44" t="n">
-        <v>1122.831785699855</v>
+        <v>1122.831785699854</v>
       </c>
       <c r="U44" t="n">
-        <v>1114.113172572196</v>
+        <v>1114.113172572195</v>
       </c>
       <c r="V44" t="n">
-        <v>1114.113172572196</v>
+        <v>1033.951950373655</v>
       </c>
       <c r="W44" t="n">
-        <v>1108.200260853023</v>
+        <v>936.6021622997465</v>
       </c>
       <c r="X44" t="n">
-        <v>988.7431490731154</v>
+        <v>817.1450505198386</v>
       </c>
       <c r="Y44" t="n">
-        <v>846.5558826227591</v>
+        <v>674.9577840694824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>419.0056758325821</v>
+        <v>183.2367519529653</v>
       </c>
       <c r="C45" t="n">
-        <v>419.0056758325821</v>
+        <v>183.2367519529653</v>
       </c>
       <c r="D45" t="n">
-        <v>258.2255595936139</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="E45" t="n">
-        <v>258.2255595936139</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="F45" t="n">
-        <v>258.2255595936139</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="G45" t="n">
-        <v>258.2255595936139</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="H45" t="n">
-        <v>131.1508755164763</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I45" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J45" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K45" t="n">
-        <v>59.28755434055739</v>
+        <v>59.28755434055737</v>
       </c>
       <c r="L45" t="n">
         <v>175.097811986239</v>
@@ -7737,40 +7737,40 @@
         <v>354.9975844592445</v>
       </c>
       <c r="N45" t="n">
-        <v>558.0786581680103</v>
+        <v>558.0786581680102</v>
       </c>
       <c r="O45" t="n">
-        <v>688.1110831430366</v>
+        <v>688.1110831430365</v>
       </c>
       <c r="P45" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="Q45" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="R45" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="S45" t="n">
-        <v>770.3970663004706</v>
+        <v>770.3970663004704</v>
       </c>
       <c r="T45" t="n">
-        <v>553.2258789477499</v>
+        <v>553.2258789477498</v>
       </c>
       <c r="U45" t="n">
-        <v>444.444473756233</v>
+        <v>553.2258789477498</v>
       </c>
       <c r="V45" t="n">
-        <v>444.444473756233</v>
+        <v>553.2258789477498</v>
       </c>
       <c r="W45" t="n">
-        <v>419.0056758325821</v>
+        <v>283.8273096780412</v>
       </c>
       <c r="X45" t="n">
-        <v>419.0056758325821</v>
+        <v>283.8273096780412</v>
       </c>
       <c r="Y45" t="n">
-        <v>419.0056758325821</v>
+        <v>183.2367519529653</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="C46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="D46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="E46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="F46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="G46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="H46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="I46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="J46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="K46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="L46" t="n">
-        <v>22.4566357139971</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="M46" t="n">
-        <v>22.4566357139971</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="N46" t="n">
-        <v>85.5329737043476</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="O46" t="n">
-        <v>85.5329737043476</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="P46" t="n">
-        <v>85.5329737043476</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.5329737043476</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="R46" t="n">
-        <v>122.9779309372172</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9779309372172</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9779309372172</v>
+        <v>122.9779309372171</v>
       </c>
       <c r="U46" t="n">
-        <v>75.36509531863416</v>
+        <v>75.36509531863408</v>
       </c>
       <c r="V46" t="n">
-        <v>71.74000284201534</v>
+        <v>71.74000284201529</v>
       </c>
       <c r="W46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="X46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.4566357139971</v>
+        <v>22.45663571399709</v>
       </c>
     </row>
   </sheetData>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9483,7 +9483,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9726,10 +9726,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>291.4402857619384</v>
+        <v>291.4402857619385</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913207</v>
+        <v>255.222782891321</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>178.3740578391992</v>
       </c>
       <c r="C11" t="n">
         <v>154.4923148425447</v>
@@ -23267,10 +23267,10 @@
         <v>175.7657295230021</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4860671013794</v>
+        <v>171.818640401856</v>
       </c>
       <c r="G11" t="n">
-        <v>71.68432493291405</v>
+        <v>37.1794047552041</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.10550038386701</v>
+        <v>32.10550038386702</v>
       </c>
       <c r="T11" t="n">
-        <v>26.8106534772528</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>125.1666010705179</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.1832812871328</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>164.069531756072</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6135600068780036</v>
+        <v>186.5723848798158</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>178.3740578391992</v>
       </c>
       <c r="C14" t="n">
-        <v>154.4923148425447</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>142.0589771035932</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>175.765729523002</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4860671013794</v>
+        <v>207.4860671013793</v>
       </c>
       <c r="G14" t="n">
-        <v>223.1382296281418</v>
+        <v>37.17940475520405</v>
       </c>
       <c r="H14" t="n">
-        <v>135.1738998151652</v>
+        <v>151.4438020691861</v>
       </c>
       <c r="I14" t="n">
-        <v>45.80699109396321</v>
+        <v>45.80699109396318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.10550038386701</v>
+        <v>32.10550038386698</v>
       </c>
       <c r="T14" t="n">
-        <v>26.8106534772528</v>
+        <v>26.81065347725278</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>54.43841809034581</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>125.1666010705179</v>
       </c>
       <c r="W14" t="n">
-        <v>142.1832812871328</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6135600068780036</v>
+        <v>111.6073300716061</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.137517862620043e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>96.25198600962989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>161.6790760074162</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>104.4550275699578</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.631426996382547</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>64.87440037819067</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>96.3762901931695</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>132.567066745236</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>96.25198600963</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.93022585691402</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>105.6368109752229</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>79.35960997655474</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>90.52250759118861</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675029.8054541992</v>
+        <v>675029.805454199</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675029.805454199</v>
+        <v>675029.8054541992</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738327.6239754942</v>
+        <v>738327.6239754941</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738327.6239754941</v>
+        <v>738327.6239754942</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>859883.6952970482</v>
       </c>
       <c r="C2" t="n">
+        <v>859883.695297048</v>
+      </c>
+      <c r="D2" t="n">
         <v>859883.6952970482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>859883.6952970481</v>
       </c>
       <c r="E2" t="n">
         <v>761645.0045736064</v>
       </c>
       <c r="F2" t="n">
-        <v>761645.0045736067</v>
+        <v>761645.0045736065</v>
       </c>
       <c r="G2" t="n">
+        <v>861625.5851370731</v>
+      </c>
+      <c r="H2" t="n">
         <v>861625.585137073</v>
       </c>
-      <c r="H2" t="n">
-        <v>861625.5851370726</v>
-      </c>
       <c r="I2" t="n">
-        <v>861625.585137073</v>
+        <v>861625.5851370727</v>
       </c>
       <c r="J2" t="n">
         <v>861625.5851370728</v>
       </c>
       <c r="K2" t="n">
-        <v>861625.5851370732</v>
+        <v>861625.5851370727</v>
       </c>
       <c r="L2" t="n">
-        <v>861625.5851370726</v>
+        <v>861625.5851370728</v>
       </c>
       <c r="M2" t="n">
         <v>861625.5851370724</v>
@@ -26350,10 +26350,10 @@
         <v>861625.5851370724</v>
       </c>
       <c r="O2" t="n">
-        <v>840970.9173584321</v>
+        <v>840970.9173584325</v>
       </c>
       <c r="P2" t="n">
-        <v>840970.9173584323</v>
+        <v>840970.9173584325</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>290729.3449665033</v>
+        <v>290729.3449665032</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82115.05232972276</v>
+        <v>82115.05232972279</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>157405.8885070444</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82115.05232972275</v>
+        <v>82115.05232972279</v>
       </c>
       <c r="M3" t="n">
-        <v>46283.26576147297</v>
+        <v>46283.26576147293</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69667.41717343035</v>
+        <v>69667.41717343021</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,22 +26430,22 @@
         <v>350168.3512706549</v>
       </c>
       <c r="G4" t="n">
-        <v>408583.7008793448</v>
+        <v>408583.7008793449</v>
       </c>
       <c r="H4" t="n">
-        <v>408583.7008793448</v>
+        <v>408583.7008793449</v>
       </c>
       <c r="I4" t="n">
         <v>408583.7008793448</v>
       </c>
       <c r="J4" t="n">
+        <v>409500.2594696327</v>
+      </c>
+      <c r="K4" t="n">
         <v>409500.2594696326</v>
       </c>
-      <c r="K4" t="n">
-        <v>409500.2594696328</v>
-      </c>
       <c r="L4" t="n">
-        <v>409500.2594696327</v>
+        <v>409500.2594696326</v>
       </c>
       <c r="M4" t="n">
         <v>408687.3379490878</v>
@@ -26454,7 +26454,7 @@
         <v>408687.3379490878</v>
       </c>
       <c r="O4" t="n">
-        <v>396698.0704244982</v>
+        <v>396698.0704244981</v>
       </c>
       <c r="P4" t="n">
         <v>396698.0704244981</v>
@@ -26482,16 +26482,16 @@
         <v>29893.45137378653</v>
       </c>
       <c r="G5" t="n">
-        <v>38522.61429167086</v>
+        <v>38522.61429167087</v>
       </c>
       <c r="H5" t="n">
-        <v>38522.61429167086</v>
+        <v>38522.61429167087</v>
       </c>
       <c r="I5" t="n">
-        <v>38522.61429167086</v>
+        <v>38522.61429167088</v>
       </c>
       <c r="J5" t="n">
-        <v>47288.16478400912</v>
+        <v>47288.16478400913</v>
       </c>
       <c r="K5" t="n">
         <v>47288.16478400913</v>
@@ -26506,10 +26506,10 @@
         <v>40845.6030683611</v>
       </c>
       <c r="O5" t="n">
-        <v>39505.14589842812</v>
+        <v>39505.1458984281</v>
       </c>
       <c r="P5" t="n">
-        <v>39505.14589842811</v>
+        <v>39505.1458984281</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380156.4504484929</v>
+        <v>380151.9840642877</v>
       </c>
       <c r="C6" t="n">
-        <v>380156.4504484929</v>
+        <v>380151.9840642875</v>
       </c>
       <c r="D6" t="n">
-        <v>380156.4504484928</v>
+        <v>380151.9840642877</v>
       </c>
       <c r="E6" t="n">
-        <v>90853.85696266168</v>
+        <v>90597.4964996785</v>
       </c>
       <c r="F6" t="n">
-        <v>381583.2019291652</v>
+        <v>381326.8414661818</v>
       </c>
       <c r="G6" t="n">
         <v>332404.2176363345</v>
       </c>
       <c r="H6" t="n">
-        <v>414519.2699660569</v>
+        <v>414519.2699660572</v>
       </c>
       <c r="I6" t="n">
-        <v>414519.2699660573</v>
+        <v>414519.269966057</v>
       </c>
       <c r="J6" t="n">
         <v>247431.2723763867</v>
       </c>
       <c r="K6" t="n">
-        <v>404837.1608834313</v>
+        <v>404837.160883431</v>
       </c>
       <c r="L6" t="n">
-        <v>322722.1085537079</v>
+        <v>322722.1085537083</v>
       </c>
       <c r="M6" t="n">
-        <v>365809.3783581504</v>
+        <v>365809.3783581505</v>
       </c>
       <c r="N6" t="n">
         <v>412092.6441196234</v>
       </c>
       <c r="O6" t="n">
-        <v>335100.2838620755</v>
+        <v>335047.3231754643</v>
       </c>
       <c r="P6" t="n">
-        <v>404767.7010355062</v>
+        <v>404714.7403488945</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>298.3569979507876</v>
       </c>
       <c r="J2" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="K2" t="n">
         <v>214.1850474633305</v>
@@ -26716,13 +26716,13 @@
         <v>214.1850474633305</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="N2" t="n">
         <v>272.0391296651716</v>
       </c>
       <c r="O2" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="P2" t="n">
         <v>241.5201736325973</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="F3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="H3" t="n">
-        <v>97.87813204915086</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="I3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="J3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="K3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="L3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="M3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="N3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="O3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="P3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>185.9588248729378</v>
       </c>
       <c r="J4" t="n">
-        <v>446.5147820747188</v>
+        <v>446.5147820747189</v>
       </c>
       <c r="K4" t="n">
         <v>446.5147820747189</v>
@@ -26826,10 +26826,10 @@
         <v>260.5559572017811</v>
       </c>
       <c r="O4" t="n">
-        <v>280.7079464249638</v>
+        <v>280.7079464249636</v>
       </c>
       <c r="P4" t="n">
-        <v>280.7079464249638</v>
+        <v>280.7079464249636</v>
       </c>
     </row>
   </sheetData>
@@ -26932,19 +26932,19 @@
         <v>111.541232051177</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.6438154121534</v>
+        <v>102.6438154121535</v>
       </c>
       <c r="M2" t="n">
-        <v>57.85408220184121</v>
+        <v>57.85408220184115</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.02227601860278</v>
+        <v>81.02227601860264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.87813204915085</v>
+        <v>97.87813204915082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.15198922318268</v>
+        <v>20.15198922318251</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>111.541232051177</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28126,13 +28126,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.6231841579954</v>
       </c>
       <c r="P11" t="n">
-        <v>114.4594707379834</v>
+        <v>16.99578645361282</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.7131825386341</v>
+        <v>139.5536826650093</v>
       </c>
       <c r="R11" t="n">
         <v>195.7131825386341</v>
@@ -28184,13 +28184,13 @@
         <v>148.7516880733257</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.6072974044544</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28223,19 +28223,19 @@
         <v>195.7131825386341</v>
       </c>
       <c r="U12" t="n">
+        <v>51.26971065018105</v>
+      </c>
+      <c r="V12" t="n">
+        <v>54.69009604246449</v>
+      </c>
+      <c r="W12" t="n">
+        <v>80.74575870407384</v>
+      </c>
+      <c r="X12" t="n">
+        <v>108.2514490617324</v>
+      </c>
+      <c r="Y12" t="n">
         <v>195.7131825386341</v>
-      </c>
-      <c r="V12" t="n">
-        <v>195.7131825386341</v>
-      </c>
-      <c r="W12" t="n">
-        <v>152.6608378797895</v>
-      </c>
-      <c r="X12" t="n">
-        <v>195.7131825386341</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>37.42546126108783</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.7131825386341</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>158.8474648934802</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,28 +28269,28 @@
         <v>165.0315595057402</v>
       </c>
       <c r="J13" t="n">
-        <v>120.6594702224427</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="K13" t="n">
+        <v>67.71994343265033</v>
+      </c>
+      <c r="L13" t="n">
         <v>195.7131825386341</v>
       </c>
-      <c r="L13" t="n">
-        <v>33.03473171776028</v>
-      </c>
       <c r="M13" t="n">
-        <v>26.14777596768348</v>
+        <v>102.1546424541673</v>
       </c>
       <c r="N13" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O13" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P13" t="n">
-        <v>195.7131825386341</v>
+        <v>59.19685176849585</v>
       </c>
       <c r="Q13" t="n">
-        <v>195.7131825386341</v>
+        <v>127.7142670197192</v>
       </c>
       <c r="R13" t="n">
         <v>195.7131825386341</v>
@@ -28351,25 +28351,25 @@
         <v>195.7131825386341</v>
       </c>
       <c r="K14" t="n">
-        <v>194.3700934312584</v>
+        <v>130.550005735879</v>
       </c>
       <c r="L14" t="n">
-        <v>140.8553003956851</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.2323482182547</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.6231841579954</v>
       </c>
       <c r="P14" t="n">
-        <v>78.17593073879844</v>
+        <v>16.99578645361282</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.14142214213381</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R14" t="n">
         <v>195.7131825386341</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>15.04665583398548</v>
+        <v>17.3960167221164</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7516880733257</v>
       </c>
       <c r="H15" t="n">
         <v>125.8039372363663</v>
@@ -28427,7 +28427,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J15" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28457,13 +28457,13 @@
         <v>191.7223660589951</v>
       </c>
       <c r="T15" t="n">
-        <v>29.04065060625558</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="U15" t="n">
         <v>195.7131825386341</v>
       </c>
       <c r="V15" t="n">
-        <v>195.7131825386341</v>
+        <v>54.69009604246449</v>
       </c>
       <c r="W15" t="n">
         <v>195.7131825386341</v>
@@ -28497,34 +28497,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7067135783481</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="H16" t="n">
         <v>165.8771976625699</v>
       </c>
       <c r="I16" t="n">
-        <v>165.0315595057402</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="J16" t="n">
-        <v>195.7131825386341</v>
+        <v>120.6594702224427</v>
       </c>
       <c r="K16" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L16" t="n">
         <v>195.7131825386341</v>
       </c>
       <c r="M16" t="n">
-        <v>26.14777596768348</v>
+        <v>37.04097333344949</v>
       </c>
       <c r="N16" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O16" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P16" t="n">
-        <v>189.2407595813888</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="Q16" t="n">
         <v>127.7142670197192</v>
@@ -28582,13 +28582,13 @@
         <v>298.3569979507876</v>
       </c>
       <c r="I17" t="n">
-        <v>264.1428312890529</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J17" t="n">
-        <v>77.90527986590124</v>
+        <v>263.864104738839</v>
       </c>
       <c r="K17" t="n">
-        <v>8.411268558320629</v>
+        <v>194.3700934312584</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>16.99578645361281</v>
+        <v>26.8417496775705</v>
       </c>
       <c r="Q17" t="n">
-        <v>277.1002470150716</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R17" t="n">
-        <v>298.3569979507876</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="S17" t="n">
-        <v>298.3569979507876</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T17" t="n">
         <v>298.3569979507876</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>155.8912377606941</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28664,7 +28664,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J18" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.773671034394486</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.7223660589951</v>
@@ -28697,19 +28697,19 @@
         <v>214.9994754791934</v>
       </c>
       <c r="U18" t="n">
-        <v>51.26971065018103</v>
+        <v>51.26971065018105</v>
       </c>
       <c r="V18" t="n">
-        <v>54.69009604246446</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>80.74575870407384</v>
       </c>
       <c r="X18" t="n">
-        <v>31.35408956653282</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>59.59175318594208</v>
+        <v>37.42546126108786</v>
       </c>
     </row>
     <row r="19">
@@ -28746,19 +28746,19 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K19" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L19" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M19" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N19" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O19" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P19" t="n">
         <v>59.19685176849585</v>
@@ -28822,10 +28822,10 @@
         <v>298.3569979507876</v>
       </c>
       <c r="J20" t="n">
-        <v>77.90527986590124</v>
+        <v>238.2679874891611</v>
       </c>
       <c r="K20" t="n">
-        <v>8.411268558320621</v>
+        <v>194.3700934312584</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>58.6147817267786</v>
+        <v>16.99578645361282</v>
       </c>
       <c r="Q20" t="n">
-        <v>277.1002470150716</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R20" t="n">
         <v>298.3569979507876</v>
       </c>
       <c r="S20" t="n">
-        <v>298.3569979507876</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T20" t="n">
         <v>222.5238360158869</v>
       </c>
       <c r="U20" t="n">
-        <v>298.3569979507876</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V20" t="n">
         <v>298.3569979507876</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>1.559326651428165</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7516880733257</v>
       </c>
       <c r="H21" t="n">
         <v>125.8039372363663</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.6072974044544</v>
       </c>
       <c r="J21" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R21" t="n">
         <v>135.1596052767173</v>
@@ -28931,19 +28931,19 @@
         <v>191.7223660589951</v>
       </c>
       <c r="T21" t="n">
-        <v>129.3807741703467</v>
+        <v>29.04065060625561</v>
       </c>
       <c r="U21" t="n">
-        <v>51.26971065018102</v>
+        <v>51.26971065018105</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>102.9120506289281</v>
       </c>
       <c r="X21" t="n">
-        <v>31.35408956653282</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K22" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L22" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M22" t="n">
-        <v>26.14777596768347</v>
+        <v>26.14777596768348</v>
       </c>
       <c r="N22" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O22" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P22" t="n">
-        <v>59.19685176849584</v>
+        <v>59.19685176849585</v>
       </c>
       <c r="Q22" t="n">
         <v>127.7142670197192</v>
@@ -29056,34 +29056,34 @@
         <v>298.3569979507876</v>
       </c>
       <c r="I23" t="n">
-        <v>298.3569979507876</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J23" t="n">
-        <v>77.90527986590124</v>
+        <v>77.90527986590125</v>
       </c>
       <c r="K23" t="n">
-        <v>8.411268558320629</v>
+        <v>8.411268558320643</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.6048273282603</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.2323482182548</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>16.99578645361281</v>
+        <v>157.5893061704523</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.8860803533369</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R23" t="n">
-        <v>298.3569979507876</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="S23" t="n">
         <v>298.3569979507876</v>
@@ -29092,7 +29092,7 @@
         <v>298.3569979507876</v>
       </c>
       <c r="U23" t="n">
-        <v>298.3569979507876</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V23" t="n">
         <v>298.3569979507876</v>
@@ -29138,7 +29138,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S24" t="n">
-        <v>5.763541186057353</v>
+        <v>5.763541186057296</v>
       </c>
       <c r="T24" t="n">
         <v>214.9994754791934</v>
@@ -29174,16 +29174,16 @@
         <v>237.2285355231188</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>84.63005900171308</v>
       </c>
       <c r="W24" t="n">
-        <v>113.0309171859755</v>
+        <v>80.74575870407375</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>31.35408956653276</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.42546126108783</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,19 +29220,19 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K25" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L25" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M25" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N25" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O25" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P25" t="n">
         <v>59.19685176849585</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="C26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="D26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="E26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="F26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="G26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="H26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="I26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="J26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="L26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="N26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="O26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="P26" t="n">
         <v>214.1850474633304</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="R26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="S26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="T26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="U26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="V26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="W26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="X26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="Y26" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
     </row>
     <row r="27">
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7516880733257</v>
@@ -29375,7 +29375,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J27" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.773671034394486</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.7223660589951</v>
       </c>
       <c r="T27" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>160.1958237087339</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="W27" t="n">
-        <v>176.0859865175504</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>214.1850474633304</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7067135783481</v>
+        <v>193.6923866184863</v>
       </c>
       <c r="H28" t="n">
         <v>165.8771976625699</v>
@@ -29457,22 +29457,22 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K28" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L28" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M28" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N28" t="n">
-        <v>90.14247249692941</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O28" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="Q28" t="n">
         <v>127.7142670197192</v>
@@ -29481,25 +29481,25 @@
         <v>203.6969845084866</v>
       </c>
       <c r="S28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="T28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="U28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="V28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="W28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="X28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.1850474633304</v>
+        <v>214.1850474633305</v>
       </c>
     </row>
     <row r="29">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>88.05375224723623</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,13 +29606,13 @@
         <v>148.7516880733257</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I30" t="n">
         <v>107.6072974044544</v>
       </c>
       <c r="J30" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R30" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.1850474633305</v>
+        <v>129.9594712700041</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29651,7 +29651,7 @@
         <v>214.1850474633305</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="X30" t="n">
         <v>214.1850474633305</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>184.8471139813946</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29691,22 +29691,22 @@
         <v>165.0315595057402</v>
       </c>
       <c r="J31" t="n">
+        <v>120.6594702224427</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67.71994343265033</v>
+      </c>
+      <c r="L31" t="n">
+        <v>33.03473171776029</v>
+      </c>
+      <c r="M31" t="n">
         <v>214.1850474633305</v>
       </c>
-      <c r="K31" t="n">
-        <v>67.71994343265031</v>
-      </c>
-      <c r="L31" t="n">
-        <v>156.7228267483593</v>
-      </c>
-      <c r="M31" t="n">
-        <v>26.14777596768348</v>
-      </c>
       <c r="N31" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O31" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P31" t="n">
         <v>59.19685176849585</v>
@@ -29715,7 +29715,7 @@
         <v>127.7142670197192</v>
       </c>
       <c r="R31" t="n">
-        <v>214.1850474633305</v>
+        <v>203.6969845084866</v>
       </c>
       <c r="S31" t="n">
         <v>214.1850474633305</v>
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,13 +29843,13 @@
         <v>148.7516880733257</v>
       </c>
       <c r="H33" t="n">
-        <v>45.69627662370564</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I33" t="n">
         <v>107.6072974044544</v>
       </c>
       <c r="J33" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.773671034394486</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>214.1850474633305</v>
       </c>
       <c r="U33" t="n">
-        <v>214.1850474633305</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.1850474633305</v>
@@ -29891,7 +29891,7 @@
         <v>214.1850474633305</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>137.7331423043986</v>
       </c>
       <c r="Y33" t="n">
         <v>214.1850474633305</v>
@@ -29931,25 +29931,25 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K34" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L34" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M34" t="n">
-        <v>26.14777596768348</v>
+        <v>57.09339669611686</v>
       </c>
       <c r="N34" t="n">
-        <v>17.42893296543297</v>
+        <v>214.1850474633305</v>
       </c>
       <c r="O34" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P34" t="n">
-        <v>214.1850474633305</v>
+        <v>59.19685176849585</v>
       </c>
       <c r="Q34" t="n">
-        <v>200.4278065512154</v>
+        <v>127.7142670197192</v>
       </c>
       <c r="R34" t="n">
         <v>203.6969845084866</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0391296651717</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="K35" t="n">
-        <v>18.52331095369109</v>
+        <v>8.411268558320643</v>
       </c>
       <c r="L35" t="n">
-        <v>215.4524327245284</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>181.2019596571035</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.8294805470981</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>145.2756455978474</v>
       </c>
       <c r="P35" t="n">
-        <v>16.99578645361281</v>
+        <v>16.99578645361282</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0391296651717</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0391296651717</v>
+        <v>195.7131825386341</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="U35" t="n">
         <v>250.1516006289799</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.6309456777296</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7516880733257</v>
@@ -30086,7 +30086,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J36" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R36" t="n">
         <v>135.1596052767173</v>
       </c>
       <c r="S36" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9994754791934</v>
@@ -30122,13 +30122,13 @@
         <v>237.2285355231188</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>169.7791323350404</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.148626375230492</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,19 +30168,19 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3176667812744</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L37" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M37" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N37" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O37" t="n">
-        <v>38.31828535041539</v>
+        <v>73.91600869903957</v>
       </c>
       <c r="P37" t="n">
         <v>59.19685176849585</v>
@@ -30198,13 +30198,13 @@
         <v>223.78693268725</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30247,31 +30247,31 @@
         <v>272.0391296651716</v>
       </c>
       <c r="K38" t="n">
-        <v>268.9672257601017</v>
+        <v>8.411268558320643</v>
       </c>
       <c r="L38" t="n">
-        <v>200.3446435315019</v>
+        <v>215.4524327245285</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>181.2019596571035</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>108.4666550943215</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>16.99578645361281</v>
+        <v>16.99578645361282</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.14142214213381</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R38" t="n">
         <v>195.7131825386341</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0391296651716</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T38" t="n">
         <v>272.0391296651716</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>156.7958264796219</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7516880733257</v>
@@ -30323,7 +30323,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J39" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R39" t="n">
         <v>135.1596052767173</v>
@@ -30353,22 +30353,22 @@
         <v>191.7223660589951</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9994754791934</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2285355231188</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.148626375230492</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>91.98614416974668</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,28 +30405,28 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K40" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L40" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M40" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N40" t="n">
-        <v>17.42893296543297</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O40" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P40" t="n">
         <v>59.19685176849585</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.7142670197192</v>
+        <v>163.3119903683433</v>
       </c>
       <c r="R40" t="n">
-        <v>212.364593376389</v>
+        <v>203.6969845084866</v>
       </c>
       <c r="S40" t="n">
         <v>235.5415388601996</v>
@@ -30438,7 +30438,7 @@
         <v>272.0391296651716</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0391296651716</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0391296651716</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="C41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="D41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="E41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="F41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="G41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="H41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="I41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J41" t="n">
-        <v>77.90527986590124</v>
+        <v>77.90527986590125</v>
       </c>
       <c r="K41" t="n">
-        <v>241.5201736325974</v>
+        <v>8.411268558320643</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6044219477111</v>
+        <v>235.604421947711</v>
       </c>
       <c r="M41" t="n">
-        <v>172.5777859801345</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>206.9814697702807</v>
+        <v>206.9814697702806</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>135.3553127814634</v>
       </c>
       <c r="P41" t="n">
-        <v>16.99578645361281</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.14142214213381</v>
+        <v>91.14142214213382</v>
       </c>
       <c r="R41" t="n">
-        <v>195.7131825386341</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="S41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="T41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="U41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="V41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="W41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="X41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
     </row>
     <row r="42">
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>34.35482445504699</v>
       </c>
       <c r="G42" t="n">
         <v>148.7516880733257</v>
@@ -30560,7 +30560,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J42" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R42" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.7223660589951</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9994754791934</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2285355231188</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>33.99393861044678</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30642,28 +30642,28 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K43" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L43" t="n">
-        <v>33.03473171776028</v>
+        <v>33.03473171776029</v>
       </c>
       <c r="M43" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N43" t="n">
-        <v>17.42893296543297</v>
+        <v>118.9655948070693</v>
       </c>
       <c r="O43" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P43" t="n">
         <v>59.19685176849585</v>
       </c>
       <c r="Q43" t="n">
-        <v>191.4277397372445</v>
+        <v>127.7142670197192</v>
       </c>
       <c r="R43" t="n">
-        <v>241.5201736325974</v>
+        <v>203.6969845084866</v>
       </c>
       <c r="S43" t="n">
         <v>235.5415388601996</v>
@@ -30672,13 +30672,13 @@
         <v>223.78693268725</v>
       </c>
       <c r="U43" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="V43" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="W43" t="n">
-        <v>241.5201736325974</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,7 +30718,7 @@
         <v>241.5201736325973</v>
       </c>
       <c r="J44" t="n">
-        <v>241.5201736325973</v>
+        <v>77.90527986590125</v>
       </c>
       <c r="K44" t="n">
         <v>241.5201736325973</v>
@@ -30730,13 +30730,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>206.9814697702807</v>
+        <v>206.9814697702806</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.468415781144813</v>
       </c>
       <c r="P44" t="n">
-        <v>65.37735803033634</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="Q44" t="n">
         <v>241.5201736325973</v>
@@ -30748,7 +30748,7 @@
         <v>241.5201736325973</v>
       </c>
       <c r="T44" t="n">
-        <v>241.5201736325973</v>
+        <v>222.5238360158869</v>
       </c>
       <c r="U44" t="n">
         <v>241.5201736325973</v>
@@ -30791,13 +30791,13 @@
         <v>148.7516880733257</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.6072974044544</v>
       </c>
       <c r="J45" t="n">
-        <v>53.14441511887334</v>
+        <v>53.14441511887335</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.773671034394486</v>
+        <v>7.773671034394493</v>
       </c>
       <c r="R45" t="n">
         <v>135.1596052767173</v>
@@ -30830,19 +30830,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>129.534944383517</v>
+        <v>237.2285355231188</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.5201736325973</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>123.7996339862005</v>
       </c>
     </row>
     <row r="46">
@@ -30879,19 +30879,19 @@
         <v>120.6594702224427</v>
       </c>
       <c r="K46" t="n">
-        <v>67.71994343265031</v>
+        <v>67.71994343265033</v>
       </c>
       <c r="L46" t="n">
-        <v>33.03473171776028</v>
+        <v>134.5713935593966</v>
       </c>
       <c r="M46" t="n">
         <v>26.14777596768348</v>
       </c>
       <c r="N46" t="n">
-        <v>81.14240568295872</v>
+        <v>17.42893296543298</v>
       </c>
       <c r="O46" t="n">
-        <v>38.31828535041539</v>
+        <v>38.3182853504154</v>
       </c>
       <c r="P46" t="n">
         <v>59.19685176849585</v>
@@ -30900,7 +30900,7 @@
         <v>127.7142670197192</v>
       </c>
       <c r="R46" t="n">
-        <v>241.5201736325973</v>
+        <v>203.6969845084866</v>
       </c>
       <c r="S46" t="n">
         <v>235.5415388601996</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H11" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I11" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J11" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K11" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L11" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M11" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N11" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O11" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P11" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R11" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S11" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T11" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H12" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J12" t="n">
         <v>19.89049851387508</v>
@@ -31844,34 +31844,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L12" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M12" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N12" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O12" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P12" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R12" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S12" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H13" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I13" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J13" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K13" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L13" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M13" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N13" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O13" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P13" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R13" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S13" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T13" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H14" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I14" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J14" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K14" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L14" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M14" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N14" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O14" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P14" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R14" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S14" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T14" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H15" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J15" t="n">
         <v>19.89049851387508</v>
@@ -32081,34 +32081,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L15" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M15" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N15" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O15" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P15" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R15" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S15" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H16" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I16" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J16" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K16" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L16" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M16" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N16" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O16" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P16" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R16" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S16" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T16" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H17" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I17" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J17" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K17" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L17" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M17" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N17" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O17" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P17" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R17" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S17" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T17" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H18" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J18" t="n">
         <v>19.89049851387508</v>
@@ -32318,34 +32318,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L18" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M18" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N18" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O18" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P18" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R18" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S18" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H19" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I19" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J19" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K19" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L19" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M19" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N19" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O19" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P19" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R19" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S19" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T19" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3934799278357821</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H20" t="n">
-        <v>4.029726310948204</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I20" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J20" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K20" t="n">
-        <v>50.05212237044091</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L20" t="n">
-        <v>62.09408371194523</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M20" t="n">
-        <v>69.09163237859482</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N20" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O20" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P20" t="n">
-        <v>56.5829054726953</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.49140555707634</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R20" t="n">
-        <v>24.71693351691447</v>
+        <v>24.71693351691446</v>
       </c>
       <c r="S20" t="n">
-        <v>8.966423855557894</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T20" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H21" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.248522043262589</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J21" t="n">
-        <v>19.89049851387509</v>
+        <v>19.89049851387508</v>
       </c>
       <c r="K21" t="n">
-        <v>33.99603007220366</v>
+        <v>33.99603007220365</v>
       </c>
       <c r="L21" t="n">
-        <v>45.71185780276617</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M21" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N21" t="n">
-        <v>54.75542785266601</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O21" t="n">
-        <v>50.09051914405931</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P21" t="n">
-        <v>40.20205767128237</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.87401089772158</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R21" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S21" t="n">
-        <v>3.910508388944846</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8485849372940529</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H22" t="n">
-        <v>1.569259231869994</v>
+        <v>1.569259231869993</v>
       </c>
       <c r="I22" t="n">
-        <v>5.307882964239199</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J22" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K22" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L22" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M22" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.00955076694029</v>
+        <v>27.00955076694028</v>
       </c>
       <c r="O22" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P22" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R22" t="n">
-        <v>7.936151493690164</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S22" t="n">
-        <v>3.075940641610199</v>
+        <v>3.075940641610198</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7541429846409982</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009627357250736161</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H23" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I23" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J23" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K23" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L23" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M23" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N23" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O23" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P23" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q23" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R23" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S23" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T23" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H24" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J24" t="n">
         <v>19.89049851387508</v>
@@ -32792,34 +32792,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L24" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M24" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N24" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O24" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P24" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R24" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S24" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H25" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I25" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J25" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K25" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L25" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M25" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N25" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O25" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P25" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R25" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S25" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T25" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H26" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I26" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J26" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K26" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L26" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M26" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N26" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O26" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P26" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q26" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R26" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S26" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T26" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H27" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J27" t="n">
         <v>19.89049851387508</v>
@@ -33029,34 +33029,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L27" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M27" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N27" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O27" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P27" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R27" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S27" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H28" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I28" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J28" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K28" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L28" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M28" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N28" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O28" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P28" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R28" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S28" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T28" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H29" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I29" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J29" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K29" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L29" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M29" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N29" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O29" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P29" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R29" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S29" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T29" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H30" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J30" t="n">
         <v>19.89049851387508</v>
@@ -33266,34 +33266,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L30" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M30" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N30" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O30" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P30" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R30" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S30" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H31" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I31" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J31" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K31" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L31" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M31" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N31" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O31" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P31" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R31" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S31" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T31" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H32" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I32" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J32" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K32" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L32" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M32" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N32" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O32" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P32" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R32" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S32" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T32" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H33" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J33" t="n">
         <v>19.89049851387508</v>
@@ -33503,34 +33503,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L33" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M33" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N33" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O33" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P33" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R33" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S33" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H34" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I34" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J34" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K34" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L34" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M34" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N34" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O34" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P34" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R34" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S34" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T34" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H35" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I35" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J35" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K35" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L35" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M35" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N35" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O35" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P35" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R35" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S35" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T35" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H36" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J36" t="n">
         <v>19.89049851387508</v>
@@ -33740,34 +33740,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L36" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M36" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N36" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O36" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P36" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R36" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S36" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H37" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I37" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J37" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K37" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L37" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M37" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N37" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O37" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P37" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R37" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S37" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T37" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H38" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I38" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J38" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K38" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L38" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M38" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N38" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O38" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P38" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q38" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R38" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S38" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T38" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H39" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J39" t="n">
         <v>19.89049851387508</v>
@@ -33977,34 +33977,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L39" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M39" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N39" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O39" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P39" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R39" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S39" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H40" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I40" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J40" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K40" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L40" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M40" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N40" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O40" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P40" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R40" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S40" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T40" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H41" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I41" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J41" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K41" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L41" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M41" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N41" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O41" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P41" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q41" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R41" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S41" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T41" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H42" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J42" t="n">
         <v>19.89049851387508</v>
@@ -34214,34 +34214,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L42" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M42" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N42" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O42" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P42" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R42" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S42" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H43" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I43" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J43" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K43" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L43" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M43" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N43" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O43" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P43" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R43" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S43" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T43" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.393479927835782</v>
+        <v>0.3934799278357819</v>
       </c>
       <c r="H44" t="n">
-        <v>4.029726310948203</v>
+        <v>4.029726310948202</v>
       </c>
       <c r="I44" t="n">
         <v>15.169634917889</v>
       </c>
       <c r="J44" t="n">
-        <v>33.39611702515224</v>
+        <v>33.39611702515222</v>
       </c>
       <c r="K44" t="n">
-        <v>50.0521223704409</v>
+        <v>50.05212237044088</v>
       </c>
       <c r="L44" t="n">
-        <v>62.09408371194522</v>
+        <v>62.0940837119452</v>
       </c>
       <c r="M44" t="n">
-        <v>69.09163237859481</v>
+        <v>69.0916323785948</v>
       </c>
       <c r="N44" t="n">
-        <v>70.20960722355824</v>
+        <v>70.20960722355821</v>
       </c>
       <c r="O44" t="n">
-        <v>66.29694119114117</v>
+        <v>66.29694119114114</v>
       </c>
       <c r="P44" t="n">
-        <v>56.58290547269529</v>
+        <v>56.58290547269527</v>
       </c>
       <c r="Q44" t="n">
-        <v>42.49140555707633</v>
+        <v>42.49140555707632</v>
       </c>
       <c r="R44" t="n">
         <v>24.71693351691446</v>
       </c>
       <c r="S44" t="n">
-        <v>8.966423855557892</v>
+        <v>8.966423855557888</v>
       </c>
       <c r="T44" t="n">
-        <v>1.722458384101137</v>
+        <v>1.722458384101136</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03147839422686256</v>
+        <v>0.03147839422686254</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2105303217660981</v>
+        <v>0.210530321766098</v>
       </c>
       <c r="H45" t="n">
-        <v>2.033279686530474</v>
+        <v>2.033279686530473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.248522043262588</v>
+        <v>7.248522043262586</v>
       </c>
       <c r="J45" t="n">
         <v>19.89049851387508</v>
@@ -34451,34 +34451,34 @@
         <v>33.99603007220365</v>
       </c>
       <c r="L45" t="n">
-        <v>45.71185780276616</v>
+        <v>45.71185780276615</v>
       </c>
       <c r="M45" t="n">
-        <v>53.34358196678721</v>
+        <v>53.34358196678719</v>
       </c>
       <c r="N45" t="n">
-        <v>54.755427852666</v>
+        <v>54.75542785266599</v>
       </c>
       <c r="O45" t="n">
-        <v>50.0905191440593</v>
+        <v>50.09051914405929</v>
       </c>
       <c r="P45" t="n">
-        <v>40.20205767128236</v>
+        <v>40.20205767128235</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.87401089772157</v>
+        <v>26.87401089772156</v>
       </c>
       <c r="R45" t="n">
         <v>13.07134752158283</v>
       </c>
       <c r="S45" t="n">
-        <v>3.910508388944845</v>
+        <v>3.910508388944844</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8485849372940528</v>
+        <v>0.8485849372940526</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01385067906355909</v>
+        <v>0.01385067906355908</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1765015495968294</v>
+        <v>0.1765015495968293</v>
       </c>
       <c r="H46" t="n">
         <v>1.569259231869993</v>
       </c>
       <c r="I46" t="n">
-        <v>5.307882964239198</v>
+        <v>5.307882964239196</v>
       </c>
       <c r="J46" t="n">
-        <v>12.47865955649584</v>
+        <v>12.47865955649583</v>
       </c>
       <c r="K46" t="n">
         <v>20.50627094406799</v>
       </c>
       <c r="L46" t="n">
-        <v>26.24096674642317</v>
+        <v>26.24096674642316</v>
       </c>
       <c r="M46" t="n">
-        <v>27.6674201790739</v>
+        <v>27.66742017907389</v>
       </c>
       <c r="N46" t="n">
         <v>27.00955076694028</v>
       </c>
       <c r="O46" t="n">
-        <v>24.94769175574095</v>
+        <v>24.94769175574094</v>
       </c>
       <c r="P46" t="n">
-        <v>21.34706014396561</v>
+        <v>21.3470601439656</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.77959793942178</v>
+        <v>14.77959793942177</v>
       </c>
       <c r="R46" t="n">
-        <v>7.936151493690163</v>
+        <v>7.93615149369016</v>
       </c>
       <c r="S46" t="n">
         <v>3.075940641610198</v>
       </c>
       <c r="T46" t="n">
-        <v>0.754142984640998</v>
+        <v>0.7541429846409978</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009627357250736159</v>
+        <v>0.009627357250736157</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>185.9588248729378</v>
       </c>
       <c r="L11" t="n">
-        <v>45.10352447725266</v>
+        <v>45.10352447725263</v>
       </c>
       <c r="M11" t="n">
-        <v>79.35399754467757</v>
+        <v>79.35399754467755</v>
       </c>
       <c r="N11" t="n">
-        <v>73.72647665468304</v>
+        <v>73.72647665468301</v>
       </c>
       <c r="O11" t="n">
-        <v>32.33564071494234</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="P11" t="n">
-        <v>97.46368428437056</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.5717603965003</v>
+        <v>48.41226052287548</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L12" t="n">
         <v>116.9800582279612</v>
@@ -35504,7 +35504,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P12" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.09626187366601</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.17132368125522</v>
+        <v>54.03704132640911</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>75.05371231619141</v>
       </c>
       <c r="K13" t="n">
-        <v>127.9932391059838</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.6784508208738</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>76.00686648648383</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>136.5163307701383</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.9989155189149</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>117.8079026727329</v>
       </c>
       <c r="K14" t="n">
+        <v>122.1387371775584</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45.10352447725263</v>
+      </c>
+      <c r="M14" t="n">
+        <v>79.35399754467755</v>
+      </c>
+      <c r="N14" t="n">
         <v>185.9588248729378</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>185.9588248729378</v>
       </c>
-      <c r="M14" t="n">
-        <v>79.35399754467757</v>
-      </c>
-      <c r="N14" t="n">
-        <v>73.72647665468304</v>
-      </c>
-      <c r="O14" t="n">
-        <v>32.33564071494234</v>
-      </c>
       <c r="P14" t="n">
-        <v>61.18014428518563</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L15" t="n">
         <v>116.9800582279612</v>
@@ -35735,13 +35735,13 @@
         <v>181.7169418919248</v>
       </c>
       <c r="N15" t="n">
-        <v>185.9588248729378</v>
+        <v>185.9588248729377</v>
       </c>
       <c r="O15" t="n">
         <v>131.3458838131579</v>
       </c>
       <c r="P15" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,16 +35793,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.00646896028599</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30.68162303289391</v>
       </c>
       <c r="J16" t="n">
-        <v>75.05371231619142</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>162.6784508208738</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>10.89319736576601</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>130.043907812893</v>
+        <v>136.5163307701383</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22.62265765645557</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="L17" t="n">
-        <v>45.10352447725266</v>
+        <v>45.10352447725263</v>
       </c>
       <c r="M17" t="n">
-        <v>79.35399754467757</v>
+        <v>79.35399754467755</v>
       </c>
       <c r="N17" t="n">
-        <v>73.72647665468304</v>
+        <v>73.72647665468301</v>
       </c>
       <c r="O17" t="n">
-        <v>32.33564071494234</v>
+        <v>32.33564071494231</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>9.845963223957677</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.9588248729378</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.6438154121535</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.53831502828645</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.83316193490064</v>
+        <v>75.8331619349007</v>
       </c>
       <c r="U17" t="n">
-        <v>48.20539732180762</v>
+        <v>48.20539732180767</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.20294810763666</v>
+        <v>37.2029481076366</v>
       </c>
       <c r="L18" t="n">
         <v>116.9800582279612</v>
@@ -35978,7 +35978,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P18" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.83682431819025</v>
+        <v>56.83682431819031</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>160.3627076232598</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="L20" t="n">
-        <v>45.10352447725266</v>
+        <v>45.10352447725263</v>
       </c>
       <c r="M20" t="n">
-        <v>79.35399754467758</v>
+        <v>79.35399754467755</v>
       </c>
       <c r="N20" t="n">
-        <v>73.72647665468304</v>
+        <v>73.72647665468301</v>
       </c>
       <c r="O20" t="n">
-        <v>32.33564071494234</v>
+        <v>32.33564071494231</v>
       </c>
       <c r="P20" t="n">
-        <v>41.61899527316581</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.9588248729378</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.6438154121535</v>
       </c>
       <c r="S20" t="n">
-        <v>70.53831502828645</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>48.20539732180762</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.20294810763667</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L21" t="n">
-        <v>116.9800582279612</v>
+        <v>116.9800582279611</v>
       </c>
       <c r="M21" t="n">
         <v>181.7169418919248</v>
@@ -36215,7 +36215,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P21" t="n">
-        <v>83.11715470447876</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.83682431819025</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>45.10352447725266</v>
+        <v>45.10352447725263</v>
       </c>
       <c r="M23" t="n">
-        <v>79.35399754467757</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="N23" t="n">
-        <v>73.72647665468304</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="O23" t="n">
-        <v>32.33564071494234</v>
+        <v>32.33564071494231</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>140.5935197168395</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.7446582112031</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.6438154121535</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.53831502828645</v>
+        <v>70.5383150282865</v>
       </c>
       <c r="T23" t="n">
-        <v>75.83316193490064</v>
+        <v>75.8331619349007</v>
       </c>
       <c r="U23" t="n">
-        <v>48.20539732180762</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L24" t="n">
         <v>116.9800582279612</v>
@@ -36449,10 +36449,10 @@
         <v>185.9588248729378</v>
       </c>
       <c r="O24" t="n">
-        <v>131.3458838131579</v>
+        <v>131.3458838131581</v>
       </c>
       <c r="P24" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>246.5206881782728</v>
       </c>
       <c r="P26" t="n">
-        <v>197.1892610097177</v>
+        <v>197.1892610097176</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.0436253211966</v>
+        <v>123.0436253211967</v>
       </c>
       <c r="R26" t="n">
-        <v>18.47186492469636</v>
+        <v>18.47186492469638</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L27" t="n">
         <v>116.9800582279612</v>
@@ -36689,7 +36689,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P27" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.72786649135813</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.98567304013813</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.71353953149644</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.2797675974293</v>
+        <v>136.2797675974292</v>
       </c>
       <c r="K29" t="n">
-        <v>205.7737789050099</v>
+        <v>205.7737789050098</v>
       </c>
       <c r="L29" t="n">
-        <v>259.2885719405832</v>
+        <v>259.2885719405831</v>
       </c>
       <c r="M29" t="n">
-        <v>293.5390450080081</v>
+        <v>293.539045008008</v>
       </c>
       <c r="N29" t="n">
         <v>287.9115241180135</v>
@@ -36853,7 +36853,7 @@
         <v>123.0436253211967</v>
       </c>
       <c r="R29" t="n">
-        <v>18.47186492469642</v>
+        <v>18.47186492469638</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L30" t="n">
         <v>116.9800582279612</v>
@@ -36926,7 +36926,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P30" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.66446373068388</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.52557724088783</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>123.688095030599</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.037271495647</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4880629548439</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>136.2797675974292</v>
       </c>
       <c r="K32" t="n">
-        <v>205.7737789050099</v>
+        <v>205.7737789050098</v>
       </c>
       <c r="L32" t="n">
-        <v>259.2885719405832</v>
+        <v>259.2885719405831</v>
       </c>
       <c r="M32" t="n">
         <v>293.539045008008</v>
@@ -37090,7 +37090,7 @@
         <v>123.0436253211967</v>
       </c>
       <c r="R32" t="n">
-        <v>18.47186492469639</v>
+        <v>18.47186492469638</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L33" t="n">
         <v>116.9800582279612</v>
@@ -37163,7 +37163,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P33" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>30.94562072843338</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>196.7561144978975</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>154.9881956948346</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.71353953149621</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.51895603257438</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>194.1338497992705</v>
+        <v>194.1338497992704</v>
       </c>
       <c r="K35" t="n">
-        <v>10.11204239537047</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>45.10352447725263</v>
+      </c>
+      <c r="M35" t="n">
         <v>260.5559572017811</v>
       </c>
-      <c r="M35" t="n">
-        <v>79.35399754467757</v>
-      </c>
       <c r="N35" t="n">
-        <v>73.72647665468304</v>
+        <v>260.5559572017811</v>
       </c>
       <c r="O35" t="n">
-        <v>32.33564071494234</v>
+        <v>177.6112863127898</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.8977075230379</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>76.3259471265376</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.22044674267057</v>
+        <v>44.22044674267052</v>
       </c>
       <c r="T35" t="n">
-        <v>49.51529364928478</v>
+        <v>49.51529364928472</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L36" t="n">
         <v>116.9800582279612</v>
@@ -37400,7 +37400,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P36" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>35.59772334862404</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.59772334862416</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>194.1338497992704</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>260.5559572017811</v>
       </c>
-      <c r="L38" t="n">
-        <v>245.4481680087545</v>
-      </c>
       <c r="M38" t="n">
-        <v>79.35399754467757</v>
+        <v>260.5559572017811</v>
       </c>
       <c r="N38" t="n">
-        <v>73.72647665468304</v>
+        <v>182.1931317490045</v>
       </c>
       <c r="O38" t="n">
-        <v>32.33564071494234</v>
+        <v>32.33564071494231</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.22044674267052</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>49.51529364928472</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L39" t="n">
         <v>116.9800582279612</v>
@@ -37637,7 +37637,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P39" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.59772334862416</v>
       </c>
       <c r="R40" t="n">
-        <v>8.66760886790242</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.93011448072173</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>233.1089050742768</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>280.7079464249638</v>
+        <v>280.7079464249636</v>
       </c>
       <c r="M41" t="n">
-        <v>251.9317835248121</v>
+        <v>79.35399754467755</v>
       </c>
       <c r="N41" t="n">
-        <v>280.7079464249638</v>
+        <v>280.7079464249636</v>
       </c>
       <c r="O41" t="n">
-        <v>32.33564071494234</v>
+        <v>167.6909534964057</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>224.5243871789845</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>45.80699109396321</v>
       </c>
       <c r="S41" t="n">
-        <v>13.70149071009628</v>
+        <v>13.70149071009619</v>
       </c>
       <c r="T41" t="n">
-        <v>18.99633761671048</v>
+        <v>18.9963376167104</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L42" t="n">
         <v>116.9800582279612</v>
@@ -37874,7 +37874,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P42" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>101.5366618416363</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.71347271752529</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.82318912411078</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>163.6148937666961</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>233.1089050742767</v>
       </c>
       <c r="L44" t="n">
-        <v>45.10352447725266</v>
+        <v>45.10352447725263</v>
       </c>
       <c r="M44" t="n">
-        <v>79.35399754467757</v>
+        <v>79.35399754467755</v>
       </c>
       <c r="N44" t="n">
-        <v>280.7079464249638</v>
+        <v>280.7079464249636</v>
       </c>
       <c r="O44" t="n">
-        <v>32.33564071494234</v>
+        <v>38.80405649608713</v>
       </c>
       <c r="P44" t="n">
-        <v>48.38157157672353</v>
+        <v>224.5243871789845</v>
       </c>
       <c r="Q44" t="n">
         <v>150.3787514904635</v>
       </c>
       <c r="R44" t="n">
-        <v>45.80699109396319</v>
+        <v>45.80699109396321</v>
       </c>
       <c r="S44" t="n">
-        <v>13.70149071009617</v>
+        <v>13.70149071009619</v>
       </c>
       <c r="T44" t="n">
-        <v>18.99633761671037</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.20294810763666</v>
+        <v>37.20294810763665</v>
       </c>
       <c r="L45" t="n">
         <v>116.9800582279612</v>
@@ -38111,7 +38111,7 @@
         <v>131.3458838131579</v>
       </c>
       <c r="P45" t="n">
-        <v>83.11715470447875</v>
+        <v>83.11715470447874</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.5366618416363</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>63.71347271752575</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.82318912411067</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
